--- a/CORTE I/Formulacion_Explicita_I/Formulacion_Explicita_I.xlsx
+++ b/CORTE I/Formulacion_Explicita_I/Formulacion_Explicita_I.xlsx
@@ -1,26 +1,222 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\GITHUB\OPTIMIZACION_LINEAL\CORTE I\Formulacion_Explicita_I\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9361FB8A-1D88-4BF0-B80C-774819A424CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="T1P1" sheetId="1" r:id="rId1"/>
+    <sheet name="T1P2" sheetId="2" r:id="rId2"/>
+    <sheet name="T1P3" sheetId="3" r:id="rId3"/>
+    <sheet name="T1P4" sheetId="4" r:id="rId4"/>
+    <sheet name="T1P5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
+  <si>
+    <t>PROBLEMA 1. DEPORTIVOS SAS</t>
+  </si>
+  <si>
+    <t>Los grandes almacenes Deportivos SAS encargan a un fabricante pantalones y chaquetas deportivas. El fabricante dispone para la confección de 750 m de tejido de algodón y 1000 m de tejido de poliéster. Cada pantalón precisa 1 m de algodón y 2 m de poliéster. Para cada chaqueta se necesitan 1.5 m de algodón y 1 m de poliéster. El precio del pantalón se fija en 50 € y el de la chaqueta en 40 €. ¿Qué número de pantalones y chaquetas debe suministrar el fabricante a los almacenes para que estos consigan una venta máxima?</t>
+  </si>
+  <si>
+    <t>X1 : Numero de pantalones a fabricar</t>
+  </si>
+  <si>
+    <t>X2 : Numero de chaquetas a fabricar</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Z= 50 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 40 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X2</t>
+    </r>
+  </si>
+  <si>
+    <t>X1 + 1,5 X2 &lt;=750</t>
+  </si>
+  <si>
+    <t>2X1 + 1X2 &lt;=1000</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Primal</t>
+  </si>
+  <si>
+    <t>iteracion 1</t>
+  </si>
+  <si>
+    <t>X_B</t>
+  </si>
+  <si>
+    <t>B-1</t>
+  </si>
+  <si>
+    <t>X1 + 1,5X2 +S1 = 750</t>
+  </si>
+  <si>
+    <t>2X1 + X2 + S2 =1000</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C_B</t>
+  </si>
+  <si>
+    <t>C_N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>C_B * Y</t>
+  </si>
+  <si>
+    <t>cocientes</t>
+  </si>
+  <si>
+    <t>entra x1 a la base</t>
+  </si>
+  <si>
+    <t>sale s2 de la base</t>
+  </si>
+  <si>
+    <t>iteracion 2</t>
+  </si>
+  <si>
+    <t>entra x2 a la base</t>
+  </si>
+  <si>
+    <t>sale s1 de la base</t>
+  </si>
+  <si>
+    <t>iteracion 3</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>X1 = 375</t>
+  </si>
+  <si>
+    <t>X2 = 250</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +224,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -45,18 +292,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8B8B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,12 +675,1110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:P104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="65.77734375" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="13">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="13">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="13">
+        <v>2</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <v>1</v>
+      </c>
+      <c r="M8" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="D9" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="13">
+        <v>50</v>
+      </c>
+      <c r="H10" s="13">
+        <v>40</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="F12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="13">
+        <v>50</v>
+      </c>
+      <c r="H12" s="13">
+        <v>40</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="13">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="J18" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="13">
+        <v>50</v>
+      </c>
+      <c r="E20" s="13">
+        <v>40</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="13">
+        <v>50</v>
+      </c>
+      <c r="E22" s="13">
+        <v>40</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1</v>
+      </c>
+      <c r="I25" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13">
+        <v>2</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="13" cm="1">
+        <f t="array" ref="D29:E30">MINVERSE(D25:E26)</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="13" cm="1">
+        <f t="array" ref="H29:H30">MMULT(_xlfn.ANCHORARRAY(D29),$M$7:$M$8)</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
+        <v>1</v>
+      </c>
+      <c r="H30" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="3" cm="1">
+        <f t="array" ref="D33:E34">MMULT(_xlfn.ANCHORARRAY(D29),H25:I26)</f>
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="3" cm="1">
+        <f t="array" ref="D37:E37">MMULT(D21:E21,_xlfn.ANCHORARRAY(D33))</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="19">
+        <f>D37-D22</f>
+        <v>-50</v>
+      </c>
+      <c r="E38" s="3">
+        <f>E37-E22</f>
+        <v>-40</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="3" cm="1">
+        <f t="array" ref="D41:D42">_xlfn.ANCHORARRAY(H29)/D33:D34</f>
+        <v>750</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="20">
+        <v>500</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+    </row>
+    <row r="43" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D45" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="13">
+        <v>0</v>
+      </c>
+      <c r="E46" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F46" s="13">
+        <v>1</v>
+      </c>
+      <c r="G46" s="13">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="13">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D47" s="13">
+        <v>1</v>
+      </c>
+      <c r="E47" s="13">
+        <v>1</v>
+      </c>
+      <c r="F47" s="13">
+        <v>0</v>
+      </c>
+      <c r="G47" s="13">
+        <v>2</v>
+      </c>
+      <c r="J47" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C49" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="13">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13">
+        <v>40</v>
+      </c>
+      <c r="F49" s="13">
+        <v>0</v>
+      </c>
+      <c r="G49" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C50" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="13">
+        <v>0</v>
+      </c>
+      <c r="E50" s="13">
+        <v>50</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="13">
+        <v>0</v>
+      </c>
+      <c r="E51" s="13">
+        <v>40</v>
+      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D53" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="13">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H54" s="13">
+        <v>0</v>
+      </c>
+      <c r="I54" s="13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D55" s="13">
+        <v>0</v>
+      </c>
+      <c r="E55" s="13">
+        <v>2</v>
+      </c>
+      <c r="H55" s="13">
+        <v>1</v>
+      </c>
+      <c r="I55" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C58" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="13" cm="1">
+        <f t="array" ref="D58:E59">MINVERSE(D54:E55)</f>
+        <v>1</v>
+      </c>
+      <c r="E58" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="13" cm="1">
+        <f t="array" ref="H58:H59">MMULT(_xlfn.ANCHORARRAY(D58),$M$7:$M$8)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D59" s="13">
+        <v>0</v>
+      </c>
+      <c r="E59" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H59" s="13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C62" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" s="3" cm="1">
+        <f t="array" ref="D62:E63">MMULT(_xlfn.ANCHORARRAY(D58),H54:I55)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D63" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C66" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="3" cm="1">
+        <f t="array" ref="D66:E66">MMULT(D50:E50,_xlfn.ANCHORARRAY(D62))</f>
+        <v>25</v>
+      </c>
+      <c r="E66" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C67" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="18">
+        <f>D66-D51</f>
+        <v>25</v>
+      </c>
+      <c r="E67" s="19">
+        <f>E66-E51</f>
+        <v>-15</v>
+      </c>
+      <c r="G67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B70" s="10"/>
+      <c r="C70" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="20" cm="1">
+        <f t="array" ref="D70:D71">_xlfn.ANCHORARRAY(H58)/E62:E63</f>
+        <v>250</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="18">
+        <v>1000</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+    </row>
+    <row r="72" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D74" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B75" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="13">
+        <v>0</v>
+      </c>
+      <c r="E75" s="13">
+        <v>1</v>
+      </c>
+      <c r="F75" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="G75" s="13">
+        <v>1</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" s="13">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D76" s="13">
+        <v>1</v>
+      </c>
+      <c r="E76" s="13">
+        <v>0</v>
+      </c>
+      <c r="F76" s="13">
+        <v>1</v>
+      </c>
+      <c r="G76" s="13">
+        <v>2</v>
+      </c>
+      <c r="J76" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C78" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="13">
+        <v>0</v>
+      </c>
+      <c r="E78" s="13">
+        <v>0</v>
+      </c>
+      <c r="F78" s="13">
+        <v>40</v>
+      </c>
+      <c r="G78" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C79" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="13">
+        <v>40</v>
+      </c>
+      <c r="E79" s="13">
+        <v>50</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C80" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="13">
+        <v>0</v>
+      </c>
+      <c r="E80" s="13">
+        <v>0</v>
+      </c>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D82" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C83" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="E83" s="13">
+        <v>1</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H83" s="13">
+        <v>0</v>
+      </c>
+      <c r="I83" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D84" s="13">
+        <v>1</v>
+      </c>
+      <c r="E84" s="13">
+        <v>2</v>
+      </c>
+      <c r="H84" s="13">
+        <v>1</v>
+      </c>
+      <c r="I84" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="13" cm="1">
+        <f t="array" ref="D87:E88">MINVERSE(D83:E84)</f>
+        <v>1</v>
+      </c>
+      <c r="E87" s="13">
+        <v>-0.49999999999999994</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="13" cm="1">
+        <f t="array" ref="H87:H88">MMULT(_xlfn.ANCHORARRAY(D87),$M$7:$M$8)</f>
+        <v>250.00000000000006</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D88" s="13">
+        <v>-0.49999999999999989</v>
+      </c>
+      <c r="E88" s="13">
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="H88" s="13">
+        <v>374.99999999999994</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C91" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" s="3" cm="1">
+        <f t="array" ref="D91:E92">MMULT(_xlfn.ANCHORARRAY(D87),H83:I84)</f>
+        <v>-0.49999999999999994</v>
+      </c>
+      <c r="E91" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D92" s="3">
+        <v>0.74999999999999989</v>
+      </c>
+      <c r="E92" s="3">
+        <v>-0.49999999999999989</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C95" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" s="3" cm="1">
+        <f t="array" ref="D95:E95">MMULT(D79:E79,_xlfn.ANCHORARRAY(D91))</f>
+        <v>17.499999999999996</v>
+      </c>
+      <c r="E95" s="3">
+        <v>15.000000000000007</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C96" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" s="22">
+        <f>D95-D80</f>
+        <v>17.499999999999996</v>
+      </c>
+      <c r="E96" s="22">
+        <f>E95-E80</f>
+        <v>15.000000000000007</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="7"/>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B100" s="10"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="21"/>
+      <c r="H100" s="21"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="10"/>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" cm="1">
+        <f t="array" ref="C101">MMULT(D79:E79,_xlfn.ANCHORARRAY(H87))</f>
+        <v>28750</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADEEDB7-EDCB-4AFF-8C9D-0DE62E8A7A84}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F69E126-DA9C-4679-A3EE-09240D34C51A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749138C6-207D-4870-9328-3988BAD3BB95}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB157B7-6FC4-424F-81BE-1CD7375E72EC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CORTE I/Formulacion_Explicita_I/Formulacion_Explicita_I.xlsx
+++ b/CORTE I/Formulacion_Explicita_I/Formulacion_Explicita_I.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\GITHUB\OPTIMIZACION_LINEAL\CORTE I\Formulacion_Explicita_I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F21D728-28A3-41C0-8D86-9C97B19BA67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20836041-DC3C-4092-8B1B-2C26F9DB5B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1P1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="107">
   <si>
     <t>PROBLEMA 1. DEPORTIVOS SAS</t>
   </si>
@@ -423,6 +423,214 @@
   </si>
   <si>
     <t>En una granja de pollos se da una dieta, para engordar, con una composición mínima de 15 unidades de una sustancia A y otras 15 unidades de una sustancia B. En el mercado sólo se encuentran dos clases de compuestos: el tipo X con una composición de una unidad de A y 5 de B, y el otro tipo Y, con una composición de cinco unidades de A y una de B. El precio del tipo X es de 10 Euros y el de tipo Y es de 30 euros. ¿Qué cantidades se han de comprar de cada tipo para cubrir las necesidades con un costo mínimo?</t>
+  </si>
+  <si>
+    <t>Requisitos</t>
+  </si>
+  <si>
+    <t>15 unidades sustancia A</t>
+  </si>
+  <si>
+    <t>15 unidades sustancia B</t>
+  </si>
+  <si>
+    <t>X1 : Numero del tipo X</t>
+  </si>
+  <si>
+    <t>X2 : Numero del tipo Y</t>
+  </si>
+  <si>
+    <t>1 de A en X</t>
+  </si>
+  <si>
+    <t>5 de B en X</t>
+  </si>
+  <si>
+    <t>5 de A en Y</t>
+  </si>
+  <si>
+    <t>1 de B en Y</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Z_min= 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 30 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-Z_max = - 10 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 30 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X2</t>
+    </r>
+  </si>
+  <si>
+    <t>1 X1 + 5 X2 &lt;= 15</t>
+  </si>
+  <si>
+    <t>5 X1 + 1 X2 &lt;= 15</t>
+  </si>
+  <si>
+    <t>1 X1 + 5 X2 + S1 = 15</t>
+  </si>
+  <si>
+    <t>5 X1 + 1 X2 + S2 = 15</t>
+  </si>
+  <si>
+    <t>X1 : Numero de Soldados</t>
+  </si>
+  <si>
+    <t>X2 : Numero de Trenes</t>
+  </si>
+  <si>
+    <t>1 hora carpinteria Soldado</t>
+  </si>
+  <si>
+    <t>1 hora acabado Tren</t>
+  </si>
+  <si>
+    <t>1 hora carpinteria Tren</t>
+  </si>
+  <si>
+    <t>100 horas de acabado</t>
+  </si>
+  <si>
+    <t>80 horas carpinteria</t>
+  </si>
+  <si>
+    <t>2 horas acabado Soldado</t>
+  </si>
+  <si>
+    <t>2 X1 + 1 X2 &lt;=100</t>
+  </si>
+  <si>
+    <t>1 X1 + 1 X2 &lt;= 80</t>
+  </si>
+  <si>
+    <t>X1 &lt;= 40</t>
+  </si>
+  <si>
+    <t>2 X1 + 1 X2 + S1 = 100</t>
+  </si>
+  <si>
+    <t>1 X1 + 1 X2 + S2 = 80</t>
+  </si>
+  <si>
+    <t>X1 - S3 + A1 = 40</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Z_max= 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 0 S1 + 0 S2 - 1000 A1</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -471,7 +679,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +707,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -662,6 +876,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -730,6 +947,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1059,16 +1279,16 @@
       <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1182,8 +1402,8 @@
       <c r="H12" s="15">
         <v>40</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1206,7 +1426,7 @@
       <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1222,16 +1442,16 @@
       <c r="P14" s="9"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1318,20 +1538,20 @@
       <c r="E22" s="15">
         <v>40</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1435,7 +1655,7 @@
       <c r="C38" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="22">
         <f>D37-D22</f>
         <v>-50</v>
       </c>
@@ -1449,7 +1669,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="12"/>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="5" cm="1">
@@ -1472,7 +1692,7 @@
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="22">
+      <c r="D42" s="23">
         <v>500</v>
       </c>
       <c r="E42" s="12"/>
@@ -1508,16 +1728,16 @@
       <c r="P43" s="9"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1604,20 +1824,20 @@
       <c r="E51" s="15">
         <v>40</v>
       </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H53" s="16" t="s">
+      <c r="H53" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I53" s="16" t="s">
+      <c r="I53" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1721,11 +1941,11 @@
       <c r="C67" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="21">
         <f>D66-D51</f>
         <v>25</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E67" s="22">
         <f>E66-E51</f>
         <v>-15</v>
       </c>
@@ -1735,10 +1955,10 @@
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B70" s="12"/>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="22" cm="1">
+      <c r="D70" s="23" cm="1">
         <f t="array" ref="D70:D71">_xlfn.ANCHORARRAY(H58)/E62:E63</f>
         <v>250</v>
       </c>
@@ -1758,7 +1978,7 @@
     <row r="71" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
-      <c r="D71" s="20">
+      <c r="D71" s="21">
         <v>1000</v>
       </c>
       <c r="E71" s="12"/>
@@ -1794,16 +2014,16 @@
       <c r="P72" s="9"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="G74" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1890,20 +2110,20 @@
       <c r="E80" s="15">
         <v>0</v>
       </c>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D82" s="16" t="s">
+      <c r="D82" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="16" t="s">
+      <c r="H82" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I82" s="16" t="s">
+      <c r="I82" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2007,11 +2227,11 @@
       <c r="C96" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D96" s="25">
+      <c r="D96" s="26">
         <f>D95-D80</f>
         <v>17.499999999999996</v>
       </c>
-      <c r="E96" s="25">
+      <c r="E96" s="26">
         <f>E95-E80</f>
         <v>15.000000000000007</v>
       </c>
@@ -2035,12 +2255,12 @@
     </row>
     <row r="100" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="12"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
       <c r="I100" s="12"/>
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
@@ -2051,63 +2271,63 @@
       <c r="P100" s="12"/>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B101" s="26" t="s">
+      <c r="B101" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C101" s="27" cm="1">
+      <c r="C101" s="28" cm="1">
         <f t="array" ref="C101">MMULT(D79:E79,_xlfn.ANCHORARRAY(H87))</f>
         <v>28750</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B102" s="28"/>
-      <c r="C102" s="29"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="30"/>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B103" s="28" t="s">
+      <c r="B103" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C103" s="29">
+      <c r="C103" s="30">
         <v>375</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B104" s="28" t="s">
+      <c r="B104" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C104" s="29">
+      <c r="C104" s="30">
         <v>250</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B105" s="28" t="s">
+      <c r="B105" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C105" s="29">
+      <c r="C105" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B106" s="28" t="s">
+      <c r="B106" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C106" s="29">
+      <c r="C106" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B107" s="28" t="s">
+      <c r="B107" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C107" s="29">
+      <c r="C107" s="30">
         <v>15</v>
       </c>
     </row>
     <row r="108" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="30" t="s">
+      <c r="B108" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C108" s="31">
+      <c r="C108" s="32">
         <v>17.5</v>
       </c>
     </row>
@@ -2123,8 +2343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADEEDB7-EDCB-4AFF-8C9D-0DE62E8A7A84}">
   <dimension ref="A1:P116"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109:C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2163,16 +2383,16 @@
       <c r="B5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2286,8 +2506,8 @@
       <c r="H11" s="15">
         <v>10</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -2361,16 +2581,16 @@
       <c r="P22" s="9"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2457,20 +2677,20 @@
       <c r="E30" s="15">
         <v>10</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="I32" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2574,7 +2794,7 @@
       <c r="C46" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="22">
         <f>D45-D30</f>
         <v>-15</v>
       </c>
@@ -2588,10 +2808,10 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12"/>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="20" cm="1">
+      <c r="D49" s="21" cm="1">
         <f t="array" ref="D49:D50">_xlfn.ANCHORARRAY(H37)/D41:D42</f>
         <v>300</v>
       </c>
@@ -2607,7 +2827,7 @@
     <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
-      <c r="D50" s="22">
+      <c r="D50" s="23">
         <v>240</v>
       </c>
       <c r="E50" s="12"/>
@@ -2637,16 +2857,16 @@
       <c r="N51" s="9"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="16" t="s">
+      <c r="F53" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G53" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2733,20 +2953,20 @@
       <c r="E59" s="15">
         <v>10</v>
       </c>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H61" s="16" t="s">
+      <c r="H61" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I61" s="16" t="s">
+      <c r="I61" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2850,11 +3070,11 @@
       <c r="C75" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="20">
+      <c r="D75" s="21">
         <f>D74-D59</f>
         <v>0.75</v>
       </c>
-      <c r="E75" s="21">
+      <c r="E75" s="22">
         <f>E74-E59</f>
         <v>-2.5</v>
       </c>
@@ -2864,10 +3084,10 @@
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12"/>
-      <c r="C78" s="19" t="s">
+      <c r="C78" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D78" s="22" cm="1">
+      <c r="D78" s="23" cm="1">
         <f t="array" ref="D78:D79">_xlfn.ANCHORARRAY(H66)/E70:E71</f>
         <v>60</v>
       </c>
@@ -2885,7 +3105,7 @@
     <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
-      <c r="D79" s="20">
+      <c r="D79" s="21">
         <v>480</v>
       </c>
       <c r="E79" s="12"/>
@@ -2912,16 +3132,16 @@
       <c r="N80" s="9"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D82" s="16" t="s">
+      <c r="D82" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F82" s="16" t="s">
+      <c r="F82" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G82" s="16" t="s">
+      <c r="G82" s="17" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3008,20 +3228,20 @@
       <c r="E88" s="15">
         <v>0</v>
       </c>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D90" s="16" t="s">
+      <c r="D90" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H90" s="16" t="s">
+      <c r="H90" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I90" s="16" t="s">
+      <c r="I90" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3125,11 +3345,11 @@
       <c r="C104" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D104" s="25">
+      <c r="D104" s="26">
         <f>D103-D88</f>
         <v>0.625</v>
       </c>
-      <c r="E104" s="25">
+      <c r="E104" s="26">
         <f>E103-E88</f>
         <v>0.12500000000000006</v>
       </c>
@@ -3151,88 +3371,88 @@
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="12"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="23"/>
-      <c r="I107" s="23"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="24"/>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
       <c r="L107" s="12"/>
     </row>
     <row r="108" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="12"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="23"/>
-      <c r="I108" s="23"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
       <c r="L108" s="12"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B109" s="26" t="s">
+      <c r="B109" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="27" cm="1">
+      <c r="C109" s="28" cm="1">
         <f t="array" ref="C109">MMULT(D87:E87,_xlfn.ANCHORARRAY(H95))</f>
         <v>3750</v>
       </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B110" s="28"/>
-      <c r="C110" s="29"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="30"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B111" s="28" t="s">
+      <c r="B111" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C111" s="29">
+      <c r="C111" s="30">
         <v>210</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B112" s="28" t="s">
+      <c r="B112" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C112" s="29">
+      <c r="C112" s="30">
         <v>60</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B113" s="28" t="s">
+      <c r="B113" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C113" s="29">
+      <c r="C113" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B114" s="28" t="s">
+      <c r="B114" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C114" s="29">
+      <c r="C114" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B115" s="28" t="s">
+      <c r="B115" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C115" s="29">
+      <c r="C115" s="30">
         <v>0.125</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="30" t="s">
+      <c r="B116" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C116" s="31">
+      <c r="C116" s="32">
         <v>0.625</v>
       </c>
     </row>
@@ -3249,7 +3469,7 @@
   <dimension ref="A1:O127"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:O57"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3259,7 +3479,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="6"/>
@@ -3298,7 +3518,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="8" t="s">
@@ -3317,7 +3537,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="6"/>
@@ -3336,23 +3556,23 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="17" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="6"/>
@@ -3363,7 +3583,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
@@ -3398,7 +3618,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="34" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="6"/>
@@ -3429,7 +3649,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="34" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="6"/>
@@ -3450,7 +3670,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="34" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="6"/>
@@ -3481,7 +3701,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="34" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="6"/>
@@ -3506,10 +3726,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7" t="s">
@@ -3521,10 +3741,10 @@
       <c r="H11" s="15">
         <v>-40</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="17"/>
+      <c r="L11" s="18"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -3532,17 +3752,17 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
@@ -3553,14 +3773,14 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>61</v>
       </c>
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="36" t="s">
         <v>62</v>
       </c>
       <c r="O15" s="6"/>
@@ -3572,7 +3792,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="34" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="6"/>
@@ -3591,7 +3811,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="43" t="s">
         <v>70</v>
       </c>
       <c r="C18" s="6"/>
@@ -3627,7 +3847,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="34" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="6"/>
@@ -3646,7 +3866,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="34" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="6"/>
@@ -3665,7 +3885,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="36" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="6"/>
@@ -3680,11 +3900,11 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="17"/>
+      <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
-      <c r="B23" s="33"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -3697,11 +3917,11 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="17"/>
+      <c r="O23" s="18"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="34" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="6"/>
@@ -3716,11 +3936,11 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="17"/>
+      <c r="O24" s="18"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="34" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="6"/>
@@ -3735,23 +3955,23 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="17"/>
+      <c r="O25" s="18"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -3775,16 +3995,16 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H28" s="6"/>
@@ -3935,8 +4155,8 @@
       <c r="E34" s="15">
         <v>40</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -3967,18 +4187,18 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="16" t="s">
+      <c r="I36" s="17" t="s">
         <v>9</v>
       </c>
       <c r="J36" s="6"/>
@@ -4271,11 +4491,11 @@
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="39">
+      <c r="D50" s="40">
         <f>D49-D34</f>
         <v>-30</v>
       </c>
-      <c r="E50" s="38">
+      <c r="E50" s="39">
         <f>E49-E34</f>
         <v>-40</v>
       </c>
@@ -4327,62 +4547,62 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="19" t="s">
+      <c r="B53" s="18"/>
+      <c r="C53" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="40" cm="1">
+      <c r="D53" s="41" cm="1">
         <f t="array" ref="D53:D54">_xlfn.ANCHORARRAY(H41)/E45:E46</f>
         <v>100</v>
       </c>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="39">
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="40">
         <v>133.33333333333334</v>
       </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17" t="s">
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
       <c r="O55" s="6"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -4404,1192 +4624,1192 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
       <c r="O57" s="6"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
       <c r="O58" s="6"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
       <c r="O59" s="6"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
       <c r="O60" s="6"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
       <c r="O61" s="6"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="41"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="42"/>
       <c r="O62" s="6"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="42"/>
       <c r="O63" s="6"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="41"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="42"/>
       <c r="O64" s="6"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="41"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="42"/>
       <c r="O65" s="6"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="41"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="42"/>
       <c r="O66" s="6"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
       <c r="O67" s="6"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="41"/>
-      <c r="N68" s="41"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
       <c r="O68" s="6"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="41"/>
-      <c r="M69" s="41"/>
-      <c r="N69" s="41"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
       <c r="O69" s="6"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="41"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
       <c r="O70" s="6"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="41"/>
-      <c r="N71" s="41"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
       <c r="O71" s="6"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="41"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
       <c r="O72" s="6"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="41"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="41"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
       <c r="O73" s="6"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="41"/>
-      <c r="M74" s="41"/>
-      <c r="N74" s="41"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
       <c r="O74" s="6"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="41"/>
-      <c r="M75" s="41"/>
-      <c r="N75" s="41"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
       <c r="O75" s="6"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="41"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
       <c r="O76" s="6"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="41"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
       <c r="O77" s="6"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="41"/>
-      <c r="N78" s="41"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
       <c r="O78" s="6"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
-      <c r="K79" s="41"/>
-      <c r="L79" s="41"/>
-      <c r="M79" s="41"/>
-      <c r="N79" s="41"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
       <c r="O79" s="6"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
-      <c r="K80" s="41"/>
-      <c r="L80" s="41"/>
-      <c r="M80" s="41"/>
-      <c r="N80" s="41"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
       <c r="O80" s="6"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
-      <c r="I81" s="41"/>
-      <c r="J81" s="41"/>
-      <c r="K81" s="41"/>
-      <c r="L81" s="41"/>
-      <c r="M81" s="41"/>
-      <c r="N81" s="41"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
       <c r="O81" s="6"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
-      <c r="B82" s="41"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
-      <c r="K82" s="41"/>
-      <c r="L82" s="41"/>
-      <c r="M82" s="41"/>
-      <c r="N82" s="41"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="42"/>
       <c r="O82" s="6"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="41"/>
-      <c r="K83" s="41"/>
-      <c r="L83" s="41"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="41"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="42"/>
       <c r="O83" s="6"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
-      <c r="B84" s="41"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="41"/>
-      <c r="K84" s="41"/>
-      <c r="L84" s="41"/>
-      <c r="M84" s="41"/>
-      <c r="N84" s="41"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="42"/>
       <c r="O84" s="6"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
-      <c r="B85" s="41"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41"/>
-      <c r="K85" s="41"/>
-      <c r="L85" s="41"/>
-      <c r="M85" s="41"/>
-      <c r="N85" s="41"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="42"/>
+      <c r="N85" s="42"/>
       <c r="O85" s="6"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
-      <c r="B86" s="41"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="41"/>
-      <c r="I86" s="41"/>
-      <c r="J86" s="41"/>
-      <c r="K86" s="41"/>
-      <c r="L86" s="41"/>
-      <c r="M86" s="41"/>
-      <c r="N86" s="41"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="42"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="42"/>
       <c r="O86" s="6"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="41"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="41"/>
-      <c r="K87" s="41"/>
-      <c r="L87" s="41"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="41"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="42"/>
       <c r="O87" s="6"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="41"/>
-      <c r="D88" s="41"/>
-      <c r="E88" s="41"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="41"/>
-      <c r="J88" s="41"/>
-      <c r="K88" s="41"/>
-      <c r="L88" s="41"/>
-      <c r="M88" s="41"/>
-      <c r="N88" s="41"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
       <c r="O88" s="6"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
-      <c r="B89" s="41"/>
-      <c r="C89" s="41"/>
-      <c r="D89" s="41"/>
-      <c r="E89" s="41"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41"/>
-      <c r="K89" s="41"/>
-      <c r="L89" s="41"/>
-      <c r="M89" s="41"/>
-      <c r="N89" s="41"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="42"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="42"/>
       <c r="O89" s="6"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
-      <c r="B90" s="41"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="41"/>
-      <c r="K90" s="41"/>
-      <c r="L90" s="41"/>
-      <c r="M90" s="41"/>
-      <c r="N90" s="41"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="42"/>
+      <c r="N90" s="42"/>
       <c r="O90" s="6"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
-      <c r="B91" s="41"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="41"/>
-      <c r="E91" s="41"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41"/>
-      <c r="K91" s="41"/>
-      <c r="L91" s="41"/>
-      <c r="M91" s="23"/>
-      <c r="N91" s="41"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="42"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="42"/>
       <c r="O91" s="6"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
-      <c r="B92" s="41"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="41"/>
-      <c r="E92" s="41"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="41"/>
-      <c r="J92" s="41"/>
-      <c r="K92" s="41"/>
-      <c r="L92" s="23"/>
-      <c r="M92" s="23"/>
-      <c r="N92" s="41"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="42"/>
       <c r="O92" s="6"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
-      <c r="K93" s="41"/>
-      <c r="L93" s="23"/>
-      <c r="M93" s="23"/>
-      <c r="N93" s="41"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="42"/>
       <c r="O93" s="6"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
-      <c r="B94" s="41"/>
-      <c r="C94" s="41"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="41"/>
-      <c r="K94" s="41"/>
-      <c r="L94" s="23"/>
-      <c r="M94" s="23"/>
-      <c r="N94" s="41"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="42"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="42"/>
       <c r="O94" s="6"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
-      <c r="B95" s="41"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="41"/>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="41"/>
-      <c r="K95" s="41"/>
-      <c r="L95" s="23"/>
-      <c r="M95" s="23"/>
-      <c r="N95" s="41"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="42"/>
       <c r="O95" s="6"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
-      <c r="B96" s="41"/>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41"/>
-      <c r="K96" s="41"/>
-      <c r="L96" s="23"/>
-      <c r="M96" s="41"/>
-      <c r="N96" s="41"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="42"/>
       <c r="O96" s="6"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
-      <c r="B97" s="41"/>
-      <c r="C97" s="41"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="41"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41"/>
-      <c r="K97" s="41"/>
-      <c r="L97" s="41"/>
-      <c r="M97" s="41"/>
-      <c r="N97" s="41"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="42"/>
+      <c r="M97" s="42"/>
+      <c r="N97" s="42"/>
       <c r="O97" s="6"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
-      <c r="B98" s="41"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
-      <c r="K98" s="41"/>
-      <c r="L98" s="41"/>
-      <c r="M98" s="41"/>
-      <c r="N98" s="41"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="42"/>
+      <c r="K98" s="42"/>
+      <c r="L98" s="42"/>
+      <c r="M98" s="42"/>
+      <c r="N98" s="42"/>
       <c r="O98" s="6"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
-      <c r="B99" s="41"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41"/>
-      <c r="K99" s="41"/>
-      <c r="L99" s="41"/>
-      <c r="M99" s="41"/>
-      <c r="N99" s="41"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="42"/>
+      <c r="M99" s="42"/>
+      <c r="N99" s="42"/>
       <c r="O99" s="6"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
-      <c r="B100" s="41"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="41"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41"/>
-      <c r="K100" s="41"/>
-      <c r="L100" s="41"/>
-      <c r="M100" s="41"/>
-      <c r="N100" s="41"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="42"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="42"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="42"/>
+      <c r="M100" s="42"/>
+      <c r="N100" s="42"/>
       <c r="O100" s="6"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
-      <c r="B101" s="41"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="41"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="41"/>
-      <c r="K101" s="41"/>
-      <c r="L101" s="41"/>
-      <c r="M101" s="41"/>
-      <c r="N101" s="41"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="42"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="42"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="42"/>
+      <c r="M101" s="42"/>
+      <c r="N101" s="42"/>
       <c r="O101" s="6"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
-      <c r="B102" s="41"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
-      <c r="K102" s="41"/>
-      <c r="L102" s="41"/>
-      <c r="M102" s="41"/>
-      <c r="N102" s="41"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="42"/>
+      <c r="I102" s="42"/>
+      <c r="J102" s="42"/>
+      <c r="K102" s="42"/>
+      <c r="L102" s="42"/>
+      <c r="M102" s="42"/>
+      <c r="N102" s="42"/>
       <c r="O102" s="6"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
-      <c r="B103" s="41"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
-      <c r="K103" s="41"/>
-      <c r="L103" s="41"/>
-      <c r="M103" s="41"/>
-      <c r="N103" s="41"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="42"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="42"/>
+      <c r="K103" s="42"/>
+      <c r="L103" s="42"/>
+      <c r="M103" s="42"/>
+      <c r="N103" s="42"/>
       <c r="O103" s="6"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
-      <c r="B104" s="41"/>
-      <c r="C104" s="41"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
-      <c r="K104" s="41"/>
-      <c r="L104" s="41"/>
-      <c r="M104" s="41"/>
-      <c r="N104" s="41"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="42"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="42"/>
+      <c r="K104" s="42"/>
+      <c r="L104" s="42"/>
+      <c r="M104" s="42"/>
+      <c r="N104" s="42"/>
       <c r="O104" s="6"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
-      <c r="B105" s="41"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
-      <c r="K105" s="41"/>
-      <c r="L105" s="41"/>
-      <c r="M105" s="41"/>
-      <c r="N105" s="41"/>
+      <c r="B105" s="42"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="42"/>
+      <c r="K105" s="42"/>
+      <c r="L105" s="42"/>
+      <c r="M105" s="42"/>
+      <c r="N105" s="42"/>
       <c r="O105" s="6"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
-      <c r="B106" s="41"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="41"/>
-      <c r="K106" s="41"/>
-      <c r="L106" s="41"/>
-      <c r="M106" s="41"/>
-      <c r="N106" s="41"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
+      <c r="M106" s="42"/>
+      <c r="N106" s="42"/>
       <c r="O106" s="6"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
-      <c r="B107" s="41"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
-      <c r="K107" s="41"/>
-      <c r="L107" s="41"/>
-      <c r="M107" s="41"/>
-      <c r="N107" s="41"/>
+      <c r="B107" s="42"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="42"/>
+      <c r="M107" s="42"/>
+      <c r="N107" s="42"/>
       <c r="O107" s="6"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
-      <c r="B108" s="41"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="41"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="41"/>
-      <c r="J108" s="41"/>
-      <c r="K108" s="41"/>
-      <c r="L108" s="41"/>
-      <c r="M108" s="41"/>
-      <c r="N108" s="41"/>
+      <c r="B108" s="42"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="42"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="42"/>
+      <c r="M108" s="42"/>
+      <c r="N108" s="42"/>
       <c r="O108" s="6"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
-      <c r="B109" s="41"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="41"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="41"/>
-      <c r="J109" s="41"/>
-      <c r="K109" s="41"/>
-      <c r="L109" s="41"/>
-      <c r="M109" s="41"/>
-      <c r="N109" s="41"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="42"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="42"/>
+      <c r="N109" s="42"/>
       <c r="O109" s="6"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="41"/>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-      <c r="I110" s="41"/>
-      <c r="J110" s="41"/>
-      <c r="K110" s="41"/>
-      <c r="L110" s="41"/>
-      <c r="M110" s="41"/>
-      <c r="N110" s="23"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="42"/>
+      <c r="K110" s="42"/>
+      <c r="L110" s="42"/>
+      <c r="M110" s="42"/>
+      <c r="N110" s="24"/>
       <c r="O110" s="6"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="24"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="41"/>
-      <c r="I111" s="41"/>
-      <c r="J111" s="41"/>
-      <c r="K111" s="41"/>
-      <c r="L111" s="41"/>
-      <c r="M111" s="41"/>
-      <c r="N111" s="23"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42"/>
+      <c r="G111" s="42"/>
+      <c r="H111" s="42"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="42"/>
+      <c r="K111" s="42"/>
+      <c r="L111" s="42"/>
+      <c r="M111" s="42"/>
+      <c r="N111" s="24"/>
       <c r="O111" s="6"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="41"/>
-      <c r="F112" s="41"/>
-      <c r="G112" s="41"/>
-      <c r="H112" s="41"/>
-      <c r="I112" s="41"/>
-      <c r="J112" s="41"/>
-      <c r="K112" s="41"/>
-      <c r="L112" s="41"/>
-      <c r="M112" s="41"/>
-      <c r="N112" s="23"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="42"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="42"/>
+      <c r="K112" s="42"/>
+      <c r="L112" s="42"/>
+      <c r="M112" s="42"/>
+      <c r="N112" s="24"/>
       <c r="O112" s="6"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="23"/>
-      <c r="J113" s="23"/>
-      <c r="K113" s="23"/>
-      <c r="L113" s="23"/>
-      <c r="M113" s="23"/>
-      <c r="N113" s="23"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="24"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="24"/>
       <c r="O113" s="6"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="23"/>
-      <c r="I114" s="23"/>
-      <c r="J114" s="23"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="23"/>
-      <c r="M114" s="23"/>
-      <c r="N114" s="23"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="24"/>
+      <c r="M114" s="24"/>
+      <c r="N114" s="24"/>
       <c r="O114" s="6"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
-      <c r="B115" s="41"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="41"/>
-      <c r="F115" s="41"/>
-      <c r="G115" s="41"/>
-      <c r="H115" s="41"/>
-      <c r="I115" s="41"/>
-      <c r="J115" s="41"/>
-      <c r="K115" s="41"/>
-      <c r="L115" s="41"/>
-      <c r="M115" s="41"/>
-      <c r="N115" s="41"/>
+      <c r="B115" s="42"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="42"/>
+      <c r="F115" s="42"/>
+      <c r="G115" s="42"/>
+      <c r="H115" s="42"/>
+      <c r="I115" s="42"/>
+      <c r="J115" s="42"/>
+      <c r="K115" s="42"/>
+      <c r="L115" s="42"/>
+      <c r="M115" s="42"/>
+      <c r="N115" s="42"/>
       <c r="O115" s="6"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
-      <c r="B116" s="41"/>
-      <c r="C116" s="24"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="41"/>
-      <c r="F116" s="41"/>
-      <c r="G116" s="41"/>
-      <c r="H116" s="41"/>
-      <c r="I116" s="41"/>
-      <c r="J116" s="41"/>
-      <c r="K116" s="41"/>
-      <c r="L116" s="41"/>
-      <c r="M116" s="41"/>
-      <c r="N116" s="41"/>
+      <c r="B116" s="42"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="42"/>
+      <c r="E116" s="42"/>
+      <c r="F116" s="42"/>
+      <c r="G116" s="42"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="42"/>
+      <c r="J116" s="42"/>
+      <c r="K116" s="42"/>
+      <c r="L116" s="42"/>
+      <c r="M116" s="42"/>
+      <c r="N116" s="42"/>
       <c r="O116" s="6"/>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
-      <c r="B117" s="41"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="41"/>
-      <c r="F117" s="41"/>
-      <c r="G117" s="41"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="41"/>
-      <c r="J117" s="41"/>
-      <c r="K117" s="41"/>
-      <c r="L117" s="41"/>
-      <c r="M117" s="41"/>
-      <c r="N117" s="41"/>
+      <c r="B117" s="42"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="42"/>
+      <c r="E117" s="42"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="42"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="42"/>
+      <c r="K117" s="42"/>
+      <c r="L117" s="42"/>
+      <c r="M117" s="42"/>
+      <c r="N117" s="42"/>
       <c r="O117" s="6"/>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
-      <c r="J118" s="41"/>
-      <c r="K118" s="41"/>
-      <c r="L118" s="41"/>
-      <c r="M118" s="41"/>
-      <c r="N118" s="41"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="42"/>
+      <c r="E118" s="42"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="42"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
+      <c r="J118" s="42"/>
+      <c r="K118" s="42"/>
+      <c r="L118" s="42"/>
+      <c r="M118" s="42"/>
+      <c r="N118" s="42"/>
       <c r="O118" s="6"/>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B119" s="24"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="41"/>
-      <c r="F119" s="41"/>
-      <c r="G119" s="41"/>
-      <c r="H119" s="41"/>
-      <c r="I119" s="41"/>
-      <c r="J119" s="41"/>
-      <c r="K119" s="41"/>
-      <c r="L119" s="41"/>
-      <c r="M119" s="41"/>
-      <c r="N119" s="41"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="42"/>
+      <c r="E119" s="42"/>
+      <c r="F119" s="42"/>
+      <c r="G119" s="42"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="42"/>
+      <c r="K119" s="42"/>
+      <c r="L119" s="42"/>
+      <c r="M119" s="42"/>
+      <c r="N119" s="42"/>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B120" s="24"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="41"/>
-      <c r="K120" s="41"/>
-      <c r="L120" s="41"/>
-      <c r="M120" s="41"/>
-      <c r="N120" s="41"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="42"/>
+      <c r="E120" s="42"/>
+      <c r="F120" s="42"/>
+      <c r="G120" s="42"/>
+      <c r="H120" s="42"/>
+      <c r="I120" s="42"/>
+      <c r="J120" s="42"/>
+      <c r="K120" s="42"/>
+      <c r="L120" s="42"/>
+      <c r="M120" s="42"/>
+      <c r="N120" s="42"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B121" s="24"/>
-      <c r="C121" s="24"/>
-      <c r="D121" s="41"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="41"/>
-      <c r="H121" s="41"/>
-      <c r="I121" s="41"/>
-      <c r="J121" s="41"/>
-      <c r="K121" s="41"/>
-      <c r="L121" s="41"/>
-      <c r="M121" s="41"/>
-      <c r="N121" s="41"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="42"/>
+      <c r="E121" s="42"/>
+      <c r="F121" s="42"/>
+      <c r="G121" s="42"/>
+      <c r="H121" s="42"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="42"/>
+      <c r="K121" s="42"/>
+      <c r="L121" s="42"/>
+      <c r="M121" s="42"/>
+      <c r="N121" s="42"/>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B122" s="24"/>
-      <c r="C122" s="24"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="41"/>
-      <c r="K122" s="41"/>
-      <c r="L122" s="41"/>
-      <c r="M122" s="41"/>
-      <c r="N122" s="41"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="42"/>
+      <c r="E122" s="42"/>
+      <c r="F122" s="42"/>
+      <c r="G122" s="42"/>
+      <c r="H122" s="42"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="42"/>
+      <c r="K122" s="42"/>
+      <c r="L122" s="42"/>
+      <c r="M122" s="42"/>
+      <c r="N122" s="42"/>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B123" s="24"/>
-      <c r="C123" s="24"/>
-      <c r="D123" s="41"/>
-      <c r="E123" s="41"/>
-      <c r="F123" s="41"/>
-      <c r="G123" s="41"/>
-      <c r="H123" s="41"/>
-      <c r="I123" s="41"/>
-      <c r="J123" s="41"/>
-      <c r="K123" s="41"/>
-      <c r="L123" s="41"/>
-      <c r="M123" s="41"/>
-      <c r="N123" s="41"/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="42"/>
+      <c r="E123" s="42"/>
+      <c r="F123" s="42"/>
+      <c r="G123" s="42"/>
+      <c r="H123" s="42"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="42"/>
+      <c r="K123" s="42"/>
+      <c r="L123" s="42"/>
+      <c r="M123" s="42"/>
+      <c r="N123" s="42"/>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B124" s="24"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="41"/>
-      <c r="H124" s="41"/>
-      <c r="I124" s="41"/>
-      <c r="J124" s="41"/>
-      <c r="K124" s="41"/>
-      <c r="L124" s="41"/>
-      <c r="M124" s="41"/>
-      <c r="N124" s="41"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="42"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="42"/>
+      <c r="H124" s="42"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="42"/>
+      <c r="K124" s="42"/>
+      <c r="L124" s="42"/>
+      <c r="M124" s="42"/>
+      <c r="N124" s="42"/>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B125" s="24"/>
-      <c r="C125" s="24"/>
-      <c r="D125" s="41"/>
-      <c r="E125" s="41"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="41"/>
-      <c r="H125" s="41"/>
-      <c r="I125" s="41"/>
-      <c r="J125" s="41"/>
-      <c r="K125" s="41"/>
-      <c r="L125" s="41"/>
-      <c r="M125" s="41"/>
-      <c r="N125" s="41"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="42"/>
+      <c r="E125" s="42"/>
+      <c r="F125" s="42"/>
+      <c r="G125" s="42"/>
+      <c r="H125" s="42"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="42"/>
+      <c r="K125" s="42"/>
+      <c r="L125" s="42"/>
+      <c r="M125" s="42"/>
+      <c r="N125" s="42"/>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B126" s="41"/>
-      <c r="C126" s="41"/>
-      <c r="D126" s="41"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="41"/>
-      <c r="H126" s="41"/>
-      <c r="I126" s="41"/>
-      <c r="J126" s="41"/>
-      <c r="K126" s="41"/>
-      <c r="L126" s="41"/>
-      <c r="M126" s="41"/>
-      <c r="N126" s="41"/>
+      <c r="B126" s="42"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="42"/>
+      <c r="E126" s="42"/>
+      <c r="F126" s="42"/>
+      <c r="G126" s="42"/>
+      <c r="H126" s="42"/>
+      <c r="I126" s="42"/>
+      <c r="J126" s="42"/>
+      <c r="K126" s="42"/>
+      <c r="L126" s="42"/>
+      <c r="M126" s="42"/>
+      <c r="N126" s="42"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B127" s="23"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
-      <c r="F127" s="23"/>
-      <c r="G127" s="23"/>
-      <c r="H127" s="23"/>
-      <c r="I127" s="23"/>
-      <c r="J127" s="23"/>
-      <c r="K127" s="23"/>
-      <c r="L127" s="23"/>
-      <c r="M127" s="23"/>
-      <c r="N127" s="23"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="24"/>
+      <c r="M127" s="24"/>
+      <c r="N127" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5601,20 +5821,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749138C6-207D-4870-9328-3988BAD3BB95}">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N89" sqref="N89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="6"/>
@@ -5653,7 +5874,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="8" t="s">
@@ -5672,8 +5893,8 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="34" t="s">
-        <v>55</v>
+      <c r="B4" s="35" t="s">
+        <v>90</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -5691,38 +5912,42 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="34" t="s">
-        <v>56</v>
+      <c r="B5" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="K5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="L5" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="6"/>
@@ -5730,104 +5955,109 @@
         <v>6</v>
       </c>
       <c r="G6" s="15">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H6" s="15">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I6" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="40">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="15">
-        <v>3000</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="O6" s="15">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="34" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="15">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H7" s="15">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I7" s="15">
         <v>0</v>
       </c>
       <c r="J7" s="15">
-        <v>1</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="15">
-        <v>4000</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1</v>
+      </c>
+      <c r="L7" s="40">
+        <v>0</v>
       </c>
       <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="O7" s="15">
+        <v>80</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="33" t="s">
-        <v>57</v>
+      <c r="B8" s="34" t="s">
+        <v>97</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="15" t="s">
-        <v>17</v>
+      <c r="D8" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
+        <v>1</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
+      <c r="O8" s="15">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="33" t="s">
-        <v>58</v>
+      <c r="B9" s="34" t="s">
+        <v>92</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="15" t="s">
-        <v>18</v>
+      <c r="D9" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="15">
-        <v>-30</v>
-      </c>
-      <c r="H9" s="15">
-        <v>-40</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0</v>
-      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -5836,50 +6066,63 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="33" t="s">
-        <v>59</v>
+      <c r="B10" s="34" t="s">
+        <v>93</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
+        <v>-1000</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="15">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="H11" s="15">
-        <v>-40</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="15">
+        <v>-1000</v>
+      </c>
+      <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="17"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -5887,49 +6130,56 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="15">
+        <v>3</v>
+      </c>
+      <c r="H12" s="15">
+        <v>2</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="M12" s="18"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="36" t="s">
+        <v>95</v>
+      </c>
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="35" t="s">
-        <v>61</v>
+      <c r="B14" s="36" t="s">
+        <v>96</v>
       </c>
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="B15" s="10"/>
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="10"/>
+      <c r="B16" s="34" t="s">
+        <v>106</v>
+      </c>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="33" t="s">
-        <v>63</v>
-      </c>
+      <c r="B17" s="43"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -5946,8 +6196,1871 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="42" t="s">
-        <v>70</v>
+      <c r="B18" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="18"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="18"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="18"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="18"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="15">
+        <v>2</v>
+      </c>
+      <c r="E29" s="15">
+        <v>1</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="15">
+        <v>1</v>
+      </c>
+      <c r="H29" s="15">
+        <v>0</v>
+      </c>
+      <c r="I29" s="40">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="15">
+        <v>100</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="15">
+        <v>1</v>
+      </c>
+      <c r="E30" s="15">
+        <v>1</v>
+      </c>
+      <c r="F30" s="15">
+        <v>0</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15">
+        <v>1</v>
+      </c>
+      <c r="I30" s="40">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="15">
+        <v>80</v>
+      </c>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="15">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="15">
+        <v>0</v>
+      </c>
+      <c r="H31" s="15">
+        <v>0</v>
+      </c>
+      <c r="I31" s="15">
+        <v>1</v>
+      </c>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="15">
+        <v>40</v>
+      </c>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="15">
+        <v>3</v>
+      </c>
+      <c r="E33" s="15">
+        <v>2</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
+      <c r="G33" s="15">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15">
+        <v>0</v>
+      </c>
+      <c r="I33" s="15">
+        <v>-1000</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0</v>
+      </c>
+      <c r="E34" s="15">
+        <v>0</v>
+      </c>
+      <c r="F34" s="15">
+        <v>-1000</v>
+      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="15">
+        <v>3</v>
+      </c>
+      <c r="E35" s="15">
+        <v>2</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="O36" s="6"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="15">
+        <v>1</v>
+      </c>
+      <c r="E38" s="15">
+        <v>0</v>
+      </c>
+      <c r="F38" s="40">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="15">
+        <v>2</v>
+      </c>
+      <c r="J38" s="15">
+        <v>1</v>
+      </c>
+      <c r="K38" s="15">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="15">
+        <v>0</v>
+      </c>
+      <c r="E39" s="15">
+        <v>1</v>
+      </c>
+      <c r="F39" s="40">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="15">
+        <v>1</v>
+      </c>
+      <c r="J39" s="15">
+        <v>1</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="15">
+        <v>0</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0</v>
+      </c>
+      <c r="F40" s="15">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="15">
+        <v>1</v>
+      </c>
+      <c r="J40" s="15">
+        <v>0</v>
+      </c>
+      <c r="K40" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="15" cm="1">
+        <f t="array" ref="D42:F44">MINVERSE(D38:F40)</f>
+        <v>1</v>
+      </c>
+      <c r="E42" s="15">
+        <v>0</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="15" cm="1">
+        <f t="array" ref="I42:I44">MMULT(_xlfn.ANCHORARRAY(D42),L29:L31)</f>
+        <v>100</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="15">
+        <v>0</v>
+      </c>
+      <c r="E43" s="15">
+        <v>1</v>
+      </c>
+      <c r="F43" s="15">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="15">
+        <v>80</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="15">
+        <v>0</v>
+      </c>
+      <c r="E44" s="15">
+        <v>0</v>
+      </c>
+      <c r="F44" s="15">
+        <v>1</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="15">
+        <v>40</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="6"/>
+      <c r="O46" s="6"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="15" cm="1">
+        <f t="array" ref="D47:F49">MMULT(_xlfn.ANCHORARRAY(D42),I38:K40)</f>
+        <v>2</v>
+      </c>
+      <c r="E47" s="15">
+        <v>1</v>
+      </c>
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="15">
+        <v>1</v>
+      </c>
+      <c r="E48" s="15">
+        <v>1</v>
+      </c>
+      <c r="F48" s="15">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="15">
+        <v>1</v>
+      </c>
+      <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="O51" s="6"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="18" cm="1">
+        <f t="array" ref="D52:F52">MMULT(D34:F34,_xlfn.ANCHORARRAY(D47))</f>
+        <v>-1000</v>
+      </c>
+      <c r="E52" s="18">
+        <v>0</v>
+      </c>
+      <c r="F52" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" s="39">
+        <f>D52-D34</f>
+        <v>-1000</v>
+      </c>
+      <c r="E53" s="40">
+        <f t="shared" ref="E53:F53" si="0">E52-E34</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="40">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" s="41" cm="1">
+        <f t="array" ref="D56:D58">_xlfn.ANCHORARRAY(I42)/D47:D49</f>
+        <v>50</v>
+      </c>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="40">
+        <v>80</v>
+      </c>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="H57" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D58" s="16">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B62" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="15">
+        <v>1</v>
+      </c>
+      <c r="E62" s="15">
+        <v>1</v>
+      </c>
+      <c r="F62" s="15">
+        <v>0</v>
+      </c>
+      <c r="G62" s="15">
+        <v>2</v>
+      </c>
+      <c r="H62" s="15">
+        <v>0</v>
+      </c>
+      <c r="I62" s="40">
+        <v>0</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L62" s="15">
+        <v>100</v>
+      </c>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="15">
+        <v>0</v>
+      </c>
+      <c r="E63" s="15">
+        <v>1</v>
+      </c>
+      <c r="F63" s="15">
+        <v>0</v>
+      </c>
+      <c r="G63" s="15">
+        <v>1</v>
+      </c>
+      <c r="H63" s="15">
+        <v>1</v>
+      </c>
+      <c r="I63" s="40">
+        <v>0</v>
+      </c>
+      <c r="K63" s="6"/>
+      <c r="L63" s="15">
+        <v>80</v>
+      </c>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="15">
+        <v>0</v>
+      </c>
+      <c r="E64" s="15">
+        <v>0</v>
+      </c>
+      <c r="F64" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G64" s="15">
+        <v>1</v>
+      </c>
+      <c r="H64" s="15">
+        <v>0</v>
+      </c>
+      <c r="I64" s="15">
+        <v>1</v>
+      </c>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="15">
+        <v>40</v>
+      </c>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B66" s="6"/>
+      <c r="C66" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="15">
+        <v>0</v>
+      </c>
+      <c r="E66" s="15">
+        <v>2</v>
+      </c>
+      <c r="F66" s="15">
+        <v>0</v>
+      </c>
+      <c r="G66" s="15">
+        <v>3</v>
+      </c>
+      <c r="H66" s="15">
+        <v>0</v>
+      </c>
+      <c r="I66" s="15">
+        <v>-1000</v>
+      </c>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B67" s="6"/>
+      <c r="C67" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="15">
+        <v>3</v>
+      </c>
+      <c r="E67" s="15">
+        <v>0</v>
+      </c>
+      <c r="F67" s="15">
+        <v>-1000</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B68" s="6"/>
+      <c r="C68" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="15">
+        <v>0</v>
+      </c>
+      <c r="E68" s="15">
+        <v>2</v>
+      </c>
+      <c r="F68" s="15">
+        <v>0</v>
+      </c>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K70" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B71" s="6"/>
+      <c r="C71" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="15">
+        <v>2</v>
+      </c>
+      <c r="E71" s="15">
+        <v>0</v>
+      </c>
+      <c r="F71" s="40">
+        <v>0</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71" s="15">
+        <v>1</v>
+      </c>
+      <c r="J71" s="15">
+        <v>1</v>
+      </c>
+      <c r="K71" s="15">
+        <v>0</v>
+      </c>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="15">
+        <v>1</v>
+      </c>
+      <c r="E72" s="15">
+        <v>1</v>
+      </c>
+      <c r="F72" s="40">
+        <v>0</v>
+      </c>
+      <c r="H72" s="6"/>
+      <c r="I72" s="15">
+        <v>0</v>
+      </c>
+      <c r="J72" s="15">
+        <v>1</v>
+      </c>
+      <c r="K72" s="15">
+        <v>0</v>
+      </c>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="15">
+        <v>1</v>
+      </c>
+      <c r="E73" s="15">
+        <v>0</v>
+      </c>
+      <c r="F73" s="15">
+        <v>1</v>
+      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="15">
+        <v>0</v>
+      </c>
+      <c r="J73" s="15">
+        <v>0</v>
+      </c>
+      <c r="K73" s="15">
+        <v>-1</v>
+      </c>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B75" s="6"/>
+      <c r="C75" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="15" cm="1">
+        <f t="array" ref="D75:F77">MINVERSE(D71:F73)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E75" s="15">
+        <v>0</v>
+      </c>
+      <c r="F75" s="15">
+        <v>0</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="15" cm="1">
+        <f t="array" ref="I75:I77">MMULT(_xlfn.ANCHORARRAY(D75),L62:L64)</f>
+        <v>50</v>
+      </c>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="E76" s="15">
+        <v>1</v>
+      </c>
+      <c r="F76" s="15">
+        <v>0</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="15">
+        <v>30</v>
+      </c>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="E77" s="15">
+        <v>0</v>
+      </c>
+      <c r="F77" s="15">
+        <v>1</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="15">
+        <v>-10</v>
+      </c>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B80" s="6"/>
+      <c r="C80" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="15" cm="1">
+        <f t="array" ref="D80:F82">MMULT(_xlfn.ANCHORARRAY(D75),I71:K73)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E80" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F80" s="15">
+        <v>0</v>
+      </c>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="E81" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F81" s="15">
+        <v>0</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="E82" s="15">
+        <v>-0.5</v>
+      </c>
+      <c r="F82" s="15">
+        <v>-1</v>
+      </c>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B85" s="6"/>
+      <c r="C85" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="18" cm="1">
+        <f t="array" ref="D85:F85">MMULT(D67:F67,_xlfn.ANCHORARRAY(D80))</f>
+        <v>501.5</v>
+      </c>
+      <c r="E85" s="18">
+        <v>501.5</v>
+      </c>
+      <c r="F85" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B86" s="6"/>
+      <c r="C86" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="39">
+        <f>D85-D67</f>
+        <v>498.5</v>
+      </c>
+      <c r="E86" s="40">
+        <f t="shared" ref="E86" si="1">E85-E67</f>
+        <v>501.5</v>
+      </c>
+      <c r="F86" s="40">
+        <f t="shared" ref="F86" si="2">F85-F67</f>
+        <v>2000</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B89" s="18"/>
+      <c r="C89" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" s="41" cm="1">
+        <f t="array" ref="D89:D91">_xlfn.ANCHORARRAY(I75)/D80:D82</f>
+        <v>100</v>
+      </c>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="40">
+        <v>-60</v>
+      </c>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="H90" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D91" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="38"/>
+      <c r="K92" s="38"/>
+      <c r="L92" s="38"/>
+      <c r="M92" s="38"/>
+      <c r="N92" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB157B7-6FC4-424F-81BE-1CD7375E72EC}">
+  <dimension ref="A1:O120"/>
+  <sheetViews>
+    <sheetView topLeftCell="A80" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K118" sqref="K118"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="71.21875" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="15">
+        <v>5</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="15">
+        <v>15</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15">
+        <v>5</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="15">
+        <v>15</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="15">
+        <v>10</v>
+      </c>
+      <c r="H9" s="15">
+        <v>30</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="15">
+        <v>-30</v>
+      </c>
+      <c r="H11" s="15">
+        <v>-40</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="10"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -5982,8 +8095,8 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20" s="33" t="s">
-        <v>66</v>
+      <c r="B20" s="34" t="s">
+        <v>86</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -6001,8 +8114,8 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21" s="33" t="s">
-        <v>67</v>
+      <c r="B21" s="34" t="s">
+        <v>87</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -6020,7 +8133,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="36" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="6"/>
@@ -6035,11 +8148,11 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="17"/>
+      <c r="O22" s="18"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
-      <c r="B23" s="33"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -6052,12 +8165,12 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="17"/>
+      <c r="O23" s="18"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="33" t="s">
-        <v>68</v>
+      <c r="B24" s="34" t="s">
+        <v>88</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -6071,12 +8184,12 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="17"/>
+      <c r="O24" s="18"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
-      <c r="B25" s="33" t="s">
-        <v>69</v>
+      <c r="B25" s="34" t="s">
+        <v>89</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -6090,23 +8203,23 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="17"/>
+      <c r="O25" s="18"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -6130,16 +8243,16 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="17" t="s">
         <v>18</v>
       </c>
       <c r="H28" s="6"/>
@@ -6160,10 +8273,10 @@
         <v>6</v>
       </c>
       <c r="D29" s="15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E29" s="15">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F29" s="15">
         <v>1</v>
@@ -6176,7 +8289,7 @@
         <v>10</v>
       </c>
       <c r="J29" s="15">
-        <v>3000</v>
+        <v>15</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
@@ -6189,10 +8302,10 @@
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="15">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E30" s="15">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F30" s="15">
         <v>0</v>
@@ -6203,7 +8316,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="15">
-        <v>4000</v>
+        <v>15</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -6235,10 +8348,10 @@
         <v>20</v>
       </c>
       <c r="D32" s="15">
+        <v>10</v>
+      </c>
+      <c r="E32" s="15">
         <v>30</v>
-      </c>
-      <c r="E32" s="15">
-        <v>40</v>
       </c>
       <c r="F32" s="15">
         <v>0</v>
@@ -6285,13 +8398,13 @@
         <v>22</v>
       </c>
       <c r="D34" s="15">
+        <v>10</v>
+      </c>
+      <c r="E34" s="15">
         <v>30</v>
       </c>
-      <c r="E34" s="15">
-        <v>40</v>
-      </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -6322,18 +8435,18 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="16" t="s">
+      <c r="I36" s="17" t="s">
         <v>9</v>
       </c>
       <c r="J36" s="6"/>
@@ -6360,10 +8473,10 @@
         <v>24</v>
       </c>
       <c r="H37" s="15">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I37" s="15">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
@@ -6385,10 +8498,10 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="15">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I38" s="15">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
@@ -6450,7 +8563,7 @@
       </c>
       <c r="H41" s="15" cm="1">
         <f t="array" ref="H41:H42">MMULT(_xlfn.ANCHORARRAY(D41),J29:J30)</f>
-        <v>3000</v>
+        <v>15</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -6473,7 +8586,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="15">
-        <v>4000</v>
+        <v>15</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -6525,10 +8638,10 @@
       </c>
       <c r="D45" s="15" cm="1">
         <f t="array" ref="D45:E46">MMULT(_xlfn.ANCHORARRAY(D41),H37:I38)</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E45" s="15">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -6546,10 +8659,10 @@
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="15">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E46" s="15">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -6626,13 +8739,13 @@
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="39">
+      <c r="D50" s="40">
         <f>D49-D34</f>
+        <v>-10</v>
+      </c>
+      <c r="E50" s="39">
+        <f>E49-E34</f>
         <v>-30</v>
-      </c>
-      <c r="E50" s="38">
-        <f>E49-E34</f>
-        <v>-40</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>31</v>
@@ -6682,62 +8795,62 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="19" t="s">
+      <c r="B53" s="18"/>
+      <c r="C53" s="20" t="s">
         <v>27</v>
       </c>
       <c r="D53" s="40" cm="1">
         <f t="array" ref="D53:D54">_xlfn.ANCHORARRAY(H41)/E45:E46</f>
-        <v>100</v>
-      </c>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="39">
-        <v>133.33333333333334</v>
-      </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="41">
+        <v>3</v>
+      </c>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
       <c r="O55" s="6"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -6759,1203 +8872,1156 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E3:J3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB157B7-6FC4-424F-81BE-1CD7375E72EC}">
-  <dimension ref="A1:O57"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="71.21875" customWidth="1"/>
-    <col min="2" max="2" width="37.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="16" t="s">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B58" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="15">
+        <v>5</v>
+      </c>
+      <c r="E58" s="15">
+        <v>0</v>
+      </c>
+      <c r="F58" s="15">
+        <v>1</v>
+      </c>
+      <c r="G58" s="15">
+        <v>1</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="15">
+        <v>15</v>
+      </c>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="15">
+        <v>1</v>
+      </c>
+      <c r="E59" s="15">
+        <v>1</v>
+      </c>
+      <c r="F59" s="15">
+        <v>0</v>
+      </c>
+      <c r="G59" s="15">
+        <v>5</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="15">
+        <v>15</v>
+      </c>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="N60" s="6"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B61" s="6"/>
+      <c r="C61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="15">
+        <v>10</v>
+      </c>
+      <c r="E61" s="15">
+        <v>0</v>
+      </c>
+      <c r="F61" s="15">
+        <v>0</v>
+      </c>
+      <c r="G61" s="15">
+        <v>30</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="N61" s="6"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B62" s="6"/>
+      <c r="C62" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="15">
+        <v>0</v>
+      </c>
+      <c r="E62" s="15">
+        <v>30</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="N62" s="6"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B63" s="6"/>
+      <c r="C63" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="15">
+        <v>10</v>
+      </c>
+      <c r="E63" s="15">
+        <v>0</v>
+      </c>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="N63" s="6"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="N64" s="6"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I65" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B66" s="6"/>
+      <c r="C66" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="15">
+        <v>1</v>
+      </c>
+      <c r="E66" s="15">
+        <v>1</v>
+      </c>
+      <c r="F66" s="6"/>
+      <c r="G66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="15">
+        <v>5</v>
+      </c>
+      <c r="I66" s="15">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="15">
+        <v>0</v>
+      </c>
+      <c r="E67" s="15">
+        <v>5</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="15">
+        <v>1</v>
+      </c>
+      <c r="I67" s="15">
+        <v>1</v>
+      </c>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B70" s="6"/>
+      <c r="C70" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="15" cm="1">
+        <f t="array" ref="D70:E71">MINVERSE(D66:E67)</f>
+        <v>1</v>
+      </c>
+      <c r="E70" s="15">
+        <v>-0.2</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="15" cm="1">
+        <f t="array" ref="H70:H71">MMULT(_xlfn.ANCHORARRAY(D70),J58:J59)</f>
+        <v>12</v>
+      </c>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="15">
+        <v>0</v>
+      </c>
+      <c r="E71" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="15">
+        <v>3</v>
+      </c>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B74" s="6"/>
+      <c r="C74" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="15" cm="1">
+        <f t="array" ref="D74:E75">MMULT(_xlfn.ANCHORARRAY(D70),H66:I67)</f>
+        <v>4.8</v>
+      </c>
+      <c r="E74" s="15">
+        <v>-0.2</v>
+      </c>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="E75" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B78" s="6"/>
+      <c r="C78" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="15" cm="1">
+        <f t="array" ref="D78:E78">MMULT(D62:E62,_xlfn.ANCHORARRAY(D74))</f>
+        <v>6</v>
+      </c>
+      <c r="E78" s="15">
+        <v>6</v>
+      </c>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B79" s="6"/>
+      <c r="C79" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="39">
+        <f>D78-D63</f>
+        <v>-4</v>
+      </c>
+      <c r="E79" s="40">
+        <f>E78-E63</f>
+        <v>6</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B82" s="18"/>
+      <c r="C82" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="41" cm="1">
+        <f t="array" ref="D82:D83">_xlfn.ANCHORARRAY(H70)/D74:D75</f>
+        <v>2.5</v>
+      </c>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="40">
+        <v>15</v>
+      </c>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+    </row>
+    <row r="84" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="38"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B87" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="15">
+        <v>1</v>
+      </c>
+      <c r="E87" s="15">
+        <v>0</v>
+      </c>
+      <c r="F87" s="15">
+        <v>5</v>
+      </c>
+      <c r="G87" s="15">
+        <v>1</v>
+      </c>
+      <c r="H87" s="6"/>
+      <c r="I87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J87" s="15">
+        <v>15</v>
+      </c>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="15">
+        <v>0</v>
+      </c>
+      <c r="E88" s="15">
+        <v>1</v>
+      </c>
+      <c r="F88" s="15">
+        <v>1</v>
+      </c>
+      <c r="G88" s="15">
+        <v>5</v>
+      </c>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="15">
+        <v>15</v>
+      </c>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="N89" s="6"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B90" s="6"/>
+      <c r="C90" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="15">
+        <v>0</v>
+      </c>
+      <c r="E90" s="15">
+        <v>0</v>
+      </c>
+      <c r="F90" s="15">
+        <v>10</v>
+      </c>
+      <c r="G90" s="15">
+        <v>30</v>
+      </c>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="N90" s="6"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B91" s="6"/>
+      <c r="C91" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="15">
+        <v>10</v>
+      </c>
+      <c r="E91" s="15">
+        <v>30</v>
+      </c>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B92" s="6"/>
+      <c r="C92" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="15">
+        <v>0</v>
+      </c>
+      <c r="E92" s="15">
+        <v>0</v>
+      </c>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="I94" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="15">
-        <v>20</v>
-      </c>
-      <c r="H6" s="15">
-        <v>30</v>
-      </c>
-      <c r="I6" s="15">
-        <v>1</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="15">
-        <v>3000</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="15">
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B95" s="6"/>
+      <c r="C95" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="15">
+        <v>5</v>
+      </c>
+      <c r="E95" s="15">
+        <v>1</v>
+      </c>
+      <c r="F95" s="6"/>
+      <c r="G95" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H95" s="15">
+        <v>1</v>
+      </c>
+      <c r="I95" s="15">
+        <v>0</v>
+      </c>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="15">
+        <v>1</v>
+      </c>
+      <c r="E96" s="15">
+        <v>5</v>
+      </c>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="15">
+        <v>0</v>
+      </c>
+      <c r="I96" s="15">
+        <v>1</v>
+      </c>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B99" s="6"/>
+      <c r="C99" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="15" cm="1">
+        <f t="array" ref="D99:E100">MINVERSE(D95:E96)</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E99" s="15">
+        <v>-4.1666666666666671E-2</v>
+      </c>
+      <c r="F99" s="6"/>
+      <c r="G99" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="15" cm="1">
+        <f t="array" ref="H99:H100">MMULT(_xlfn.ANCHORARRAY(D99),J87:J88)</f>
+        <v>2.5</v>
+      </c>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="15">
+        <v>-4.1666666666666671E-2</v>
+      </c>
+      <c r="E100" s="15">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B103" s="6"/>
+      <c r="C103" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="15" cm="1">
+        <f t="array" ref="D103:E104">MMULT(_xlfn.ANCHORARRAY(D99),H95:I96)</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E103" s="15">
+        <v>-4.1666666666666671E-2</v>
+      </c>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="15">
+        <v>-4.1666666666666671E-2</v>
+      </c>
+      <c r="E104" s="15">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B107" s="6"/>
+      <c r="C107" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="15" cm="1">
+        <f t="array" ref="D107:E107">MMULT(D91:E91,_xlfn.ANCHORARRAY(D103))</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="E107" s="15">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B108" s="6"/>
+      <c r="C108" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="44">
+        <f>D107-D92</f>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="E108" s="44">
+        <f>E107-E92</f>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+    </row>
+    <row r="110" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="38"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="38"/>
+      <c r="J110" s="38"/>
+      <c r="K110" s="38"/>
+      <c r="L110" s="38"/>
+      <c r="M110" s="38"/>
+      <c r="N110" s="38"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+    </row>
+    <row r="112" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="42"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="42"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="42"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B113" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C113" s="28" cm="1">
+        <f t="array" ref="C113">MMULT(D91:E91,_xlfn.ANCHORARRAY(H99))</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B114" s="29"/>
+      <c r="C114" s="30"/>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B115" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115" s="30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B116" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C116" s="30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B117" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B118" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C118" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B119" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C119" s="30">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="15">
-        <v>30</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>1</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="15">
-        <v>4000</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="15">
-        <v>-30</v>
-      </c>
-      <c r="H9" s="15">
-        <v>-40</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="15">
-        <v>-30</v>
-      </c>
-      <c r="H11" s="15">
-        <v>-40</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="10"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="10"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="17"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="17"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="17"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="17"/>
-    </row>
-    <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="15">
-        <v>20</v>
-      </c>
-      <c r="E29" s="15">
-        <v>30</v>
-      </c>
-      <c r="F29" s="15">
-        <v>1</v>
-      </c>
-      <c r="G29" s="15">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="15">
-        <v>3000</v>
-      </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="15">
-        <v>40</v>
-      </c>
-      <c r="E30" s="15">
-        <v>30</v>
-      </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
-        <v>1</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="15">
-        <v>4000</v>
-      </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="15">
-        <v>30</v>
-      </c>
-      <c r="E32" s="15">
-        <v>40</v>
-      </c>
-      <c r="F32" s="15">
-        <v>0</v>
-      </c>
-      <c r="G32" s="15">
-        <v>0</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="15">
-        <v>0</v>
-      </c>
-      <c r="E33" s="15">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="15">
-        <v>30</v>
-      </c>
-      <c r="E34" s="15">
-        <v>40</v>
-      </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="15">
-        <v>1</v>
-      </c>
-      <c r="E37" s="15">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="15">
-        <v>20</v>
-      </c>
-      <c r="I37" s="15">
-        <v>30</v>
-      </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="15">
-        <v>0</v>
-      </c>
-      <c r="E38" s="15">
-        <v>1</v>
-      </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="15">
-        <v>40</v>
-      </c>
-      <c r="I38" s="15">
-        <v>30</v>
-      </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="15" cm="1">
-        <f t="array" ref="D41:E42">MINVERSE(D37:E38)</f>
-        <v>1</v>
-      </c>
-      <c r="E41" s="15">
-        <v>0</v>
-      </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="15" cm="1">
-        <f t="array" ref="H41:H42">MMULT(_xlfn.ANCHORARRAY(D41),J29:J30)</f>
-        <v>3000</v>
-      </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="15">
-        <v>0</v>
-      </c>
-      <c r="E42" s="15">
-        <v>1</v>
-      </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="15">
-        <v>4000</v>
-      </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="15" cm="1">
-        <f t="array" ref="D45:E46">MMULT(_xlfn.ANCHORARRAY(D41),H37:I38)</f>
-        <v>20</v>
-      </c>
-      <c r="E45" s="15">
-        <v>30</v>
-      </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="15">
-        <v>40</v>
-      </c>
-      <c r="E46" s="15">
-        <v>30</v>
-      </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D49" s="15" cm="1">
-        <f t="array" ref="D49:E49">MMULT(D33:E33,_xlfn.ANCHORARRAY(D45))</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="15">
-        <v>0</v>
-      </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="39">
-        <f>D49-D34</f>
-        <v>-30</v>
-      </c>
-      <c r="E50" s="38">
-        <f>E49-E34</f>
-        <v>-40</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="40" cm="1">
-        <f t="array" ref="D53:D54">_xlfn.ANCHORARRAY(H41)/E45:E46</f>
-        <v>100</v>
-      </c>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="39">
-        <v>133.33333333333334</v>
-      </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-    </row>
-    <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="6"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="6"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="6"/>
+      <c r="C120" s="32">
+        <v>5.8330000000000002</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/CORTE I/Formulacion_Explicita_I/Formulacion_Explicita_I.xlsx
+++ b/CORTE I/Formulacion_Explicita_I/Formulacion_Explicita_I.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\GITHUB\OPTIMIZACION_LINEAL\CORTE I\Formulacion_Explicita_I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20836041-DC3C-4092-8B1B-2C26F9DB5B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D68EEF0-4C1E-4C26-B59D-A789BD4005ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T1P1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="111">
   <si>
     <t>PROBLEMA 1. DEPORTIVOS SAS</t>
   </si>
@@ -577,13 +577,7 @@
     <t>1 X1 + 1 X2 + S2 = 80</t>
   </si>
   <si>
-    <t>X1 - S3 + A1 = 40</t>
-  </si>
-  <si>
     <t>s3</t>
-  </si>
-  <si>
-    <t>a1</t>
   </si>
   <si>
     <r>
@@ -631,6 +625,24 @@
       </rPr>
       <t xml:space="preserve"> + 0 S1 + 0 S2 - 1000 A1</t>
     </r>
+  </si>
+  <si>
+    <t>X1 + S3 = 40</t>
+  </si>
+  <si>
+    <t>sale s3 de la base</t>
+  </si>
+  <si>
+    <t>entra s1 a la base</t>
+  </si>
+  <si>
+    <t>iteracion 4</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>rS3</t>
   </si>
 </sst>
 </file>
@@ -717,7 +729,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -842,11 +854,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -876,9 +901,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -943,6 +965,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -951,6 +976,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1239,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P108"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="DG150" sqref="DG150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1279,16 +1316,16 @@
       <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1402,8 +1439,8 @@
       <c r="H12" s="15">
         <v>40</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1426,7 +1463,7 @@
       <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1442,16 +1479,16 @@
       <c r="P14" s="9"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1538,20 +1575,20 @@
       <c r="E22" s="15">
         <v>40</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="17" t="s">
+      <c r="H24" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="I24" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1655,7 +1692,7 @@
       <c r="C38" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="21">
         <f>D37-D22</f>
         <v>-50</v>
       </c>
@@ -1669,7 +1706,7 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="12"/>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D41" s="5" cm="1">
@@ -1692,7 +1729,7 @@
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="23">
+      <c r="D42" s="22">
         <v>500</v>
       </c>
       <c r="E42" s="12"/>
@@ -1728,16 +1765,16 @@
       <c r="P43" s="9"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="17" t="s">
+      <c r="E45" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1824,20 +1861,20 @@
       <c r="E51" s="15">
         <v>40</v>
       </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H53" s="17" t="s">
+      <c r="H53" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I53" s="17" t="s">
+      <c r="I53" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1941,11 +1978,11 @@
       <c r="C67" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="21">
+      <c r="D67" s="20">
         <f>D66-D51</f>
         <v>25</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E67" s="21">
         <f>E66-E51</f>
         <v>-15</v>
       </c>
@@ -1955,10 +1992,10 @@
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B70" s="12"/>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="23" cm="1">
+      <c r="D70" s="22" cm="1">
         <f t="array" ref="D70:D71">_xlfn.ANCHORARRAY(H58)/E62:E63</f>
         <v>250</v>
       </c>
@@ -1978,7 +2015,7 @@
     <row r="71" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
-      <c r="D71" s="21">
+      <c r="D71" s="20">
         <v>1000</v>
       </c>
       <c r="E71" s="12"/>
@@ -2014,16 +2051,16 @@
       <c r="P72" s="9"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="17" t="s">
+      <c r="E74" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="17" t="s">
+      <c r="F74" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G74" s="17" t="s">
+      <c r="G74" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2110,20 +2147,20 @@
       <c r="E80" s="15">
         <v>0</v>
       </c>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E82" s="17" t="s">
+      <c r="E82" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H82" s="17" t="s">
+      <c r="H82" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I82" s="17" t="s">
+      <c r="I82" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2227,11 +2264,11 @@
       <c r="C96" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D96" s="26">
+      <c r="D96" s="25">
         <f>D95-D80</f>
         <v>17.499999999999996</v>
       </c>
-      <c r="E96" s="26">
+      <c r="E96" s="25">
         <f>E95-E80</f>
         <v>15.000000000000007</v>
       </c>
@@ -2255,12 +2292,12 @@
     </row>
     <row r="100" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="12"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
       <c r="I100" s="12"/>
       <c r="J100" s="12"/>
       <c r="K100" s="12"/>
@@ -2271,63 +2308,63 @@
       <c r="P100" s="12"/>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B101" s="27" t="s">
+      <c r="B101" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C101" s="28" cm="1">
+      <c r="C101" s="27" cm="1">
         <f t="array" ref="C101">MMULT(D79:E79,_xlfn.ANCHORARRAY(H87))</f>
         <v>28750</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B102" s="29"/>
-      <c r="C102" s="30"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="29"/>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B103" s="29" t="s">
+      <c r="B103" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C103" s="30">
+      <c r="C103" s="29">
         <v>375</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B104" s="29" t="s">
+      <c r="B104" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C104" s="30">
+      <c r="C104" s="29">
         <v>250</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B105" s="29" t="s">
+      <c r="B105" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C105" s="30">
+      <c r="C105" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B106" s="29" t="s">
+      <c r="B106" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C106" s="30">
+      <c r="C106" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B107" s="29" t="s">
+      <c r="B107" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C107" s="30">
+      <c r="C107" s="29">
         <v>15</v>
       </c>
     </row>
     <row r="108" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="31" t="s">
+      <c r="B108" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C108" s="32">
+      <c r="C108" s="31">
         <v>17.5</v>
       </c>
     </row>
@@ -2343,7 +2380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADEEDB7-EDCB-4AFF-8C9D-0DE62E8A7A84}">
   <dimension ref="A1:P116"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="B109" sqref="B109:C116"/>
     </sheetView>
   </sheetViews>
@@ -2383,16 +2420,16 @@
       <c r="B5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2506,8 +2543,8 @@
       <c r="H11" s="15">
         <v>10</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -2581,16 +2618,16 @@
       <c r="P22" s="9"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2677,20 +2714,20 @@
       <c r="E30" s="15">
         <v>10</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="17" t="s">
+      <c r="H32" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="17" t="s">
+      <c r="I32" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2794,7 +2831,7 @@
       <c r="C46" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="21">
         <f>D45-D30</f>
         <v>-15</v>
       </c>
@@ -2808,10 +2845,10 @@
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12"/>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="21" cm="1">
+      <c r="D49" s="20" cm="1">
         <f t="array" ref="D49:D50">_xlfn.ANCHORARRAY(H37)/D41:D42</f>
         <v>300</v>
       </c>
@@ -2827,7 +2864,7 @@
     <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
-      <c r="D50" s="23">
+      <c r="D50" s="22">
         <v>240</v>
       </c>
       <c r="E50" s="12"/>
@@ -2857,16 +2894,16 @@
       <c r="N51" s="9"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G53" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2953,20 +2990,20 @@
       <c r="E59" s="15">
         <v>10</v>
       </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E61" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H61" s="17" t="s">
+      <c r="H61" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I61" s="17" t="s">
+      <c r="I61" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3070,11 +3107,11 @@
       <c r="C75" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="21">
+      <c r="D75" s="20">
         <f>D74-D59</f>
         <v>0.75</v>
       </c>
-      <c r="E75" s="22">
+      <c r="E75" s="21">
         <f>E74-E59</f>
         <v>-2.5</v>
       </c>
@@ -3084,10 +3121,10 @@
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12"/>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D78" s="23" cm="1">
+      <c r="D78" s="22" cm="1">
         <f t="array" ref="D78:D79">_xlfn.ANCHORARRAY(H66)/E70:E71</f>
         <v>60</v>
       </c>
@@ -3105,7 +3142,7 @@
     <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
-      <c r="D79" s="21">
+      <c r="D79" s="20">
         <v>480</v>
       </c>
       <c r="E79" s="12"/>
@@ -3132,16 +3169,16 @@
       <c r="N80" s="9"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E82" s="17" t="s">
+      <c r="E82" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F82" s="17" t="s">
+      <c r="F82" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G82" s="17" t="s">
+      <c r="G82" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3228,20 +3265,20 @@
       <c r="E88" s="15">
         <v>0</v>
       </c>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D90" s="17" t="s">
+      <c r="D90" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E90" s="17" t="s">
+      <c r="E90" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H90" s="17" t="s">
+      <c r="H90" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I90" s="17" t="s">
+      <c r="I90" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3345,11 +3382,11 @@
       <c r="C104" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D104" s="26">
+      <c r="D104" s="25">
         <f>D103-D88</f>
         <v>0.625</v>
       </c>
-      <c r="E104" s="26">
+      <c r="E104" s="25">
         <f>E103-E88</f>
         <v>0.12500000000000006</v>
       </c>
@@ -3371,88 +3408,88 @@
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="12"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="24"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="23"/>
       <c r="J107" s="12"/>
       <c r="K107" s="12"/>
       <c r="L107" s="12"/>
     </row>
     <row r="108" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="12"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="24"/>
-      <c r="I108" s="24"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="23"/>
       <c r="J108" s="12"/>
       <c r="K108" s="12"/>
       <c r="L108" s="12"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B109" s="27" t="s">
+      <c r="B109" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C109" s="28" cm="1">
+      <c r="C109" s="27" cm="1">
         <f t="array" ref="C109">MMULT(D87:E87,_xlfn.ANCHORARRAY(H95))</f>
         <v>3750</v>
       </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B110" s="29"/>
-      <c r="C110" s="30"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="29"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B111" s="29" t="s">
+      <c r="B111" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C111" s="30">
+      <c r="C111" s="29">
         <v>210</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B112" s="29" t="s">
+      <c r="B112" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C112" s="30">
+      <c r="C112" s="29">
         <v>60</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B113" s="29" t="s">
+      <c r="B113" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C113" s="30">
+      <c r="C113" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B114" s="29" t="s">
+      <c r="B114" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C114" s="30">
+      <c r="C114" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B115" s="29" t="s">
+      <c r="B115" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C115" s="30">
+      <c r="C115" s="29">
         <v>0.125</v>
       </c>
     </row>
     <row r="116" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="31" t="s">
+      <c r="B116" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C116" s="32">
+      <c r="C116" s="31">
         <v>0.625</v>
       </c>
     </row>
@@ -3468,8 +3505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F69E126-DA9C-4679-A3EE-09240D34C51A}">
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112:C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3479,7 +3516,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="6"/>
@@ -3518,7 +3555,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="34"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="8" t="s">
@@ -3537,7 +3574,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="6"/>
@@ -3556,23 +3593,23 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="16" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="6"/>
@@ -3583,7 +3620,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
@@ -3618,7 +3655,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="6"/>
@@ -3649,7 +3686,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C8" s="6"/>
@@ -3670,7 +3707,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="6"/>
@@ -3701,7 +3738,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>59</v>
       </c>
       <c r="C10" s="6"/>
@@ -3726,10 +3763,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7" t="s">
@@ -3741,10 +3778,10 @@
       <c r="H11" s="15">
         <v>-40</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="18"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -3752,17 +3789,17 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
@@ -3773,14 +3810,14 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>61</v>
       </c>
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>62</v>
       </c>
       <c r="O15" s="6"/>
@@ -3792,7 +3829,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="6"/>
@@ -3847,7 +3884,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="6"/>
@@ -3866,7 +3903,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="6"/>
@@ -3885,7 +3922,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="6"/>
@@ -3900,11 +3937,11 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="18"/>
+      <c r="O22" s="17"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
-      <c r="B23" s="34"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -3917,11 +3954,11 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="18"/>
+      <c r="O23" s="17"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="6"/>
@@ -3936,11 +3973,11 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="18"/>
+      <c r="O24" s="17"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="6"/>
@@ -3955,23 +3992,23 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="18"/>
+      <c r="O25" s="17"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -3995,16 +4032,16 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H28" s="6"/>
@@ -4155,8 +4192,8 @@
       <c r="E34" s="15">
         <v>40</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -4187,18 +4224,18 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="17" t="s">
+      <c r="H36" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="16" t="s">
         <v>9</v>
       </c>
       <c r="J36" s="6"/>
@@ -4491,11 +4528,11 @@
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="40">
+      <c r="D50" s="39">
         <f>D49-D34</f>
         <v>-30</v>
       </c>
-      <c r="E50" s="39">
+      <c r="E50" s="38">
         <f>E49-E34</f>
         <v>-40</v>
       </c>
@@ -4547,62 +4584,62 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="20" t="s">
+      <c r="B53" s="17"/>
+      <c r="C53" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="41" cm="1">
+      <c r="D53" s="40" cm="1">
         <f t="array" ref="D53:D54">_xlfn.ANCHORARRAY(H41)/E45:E46</f>
         <v>100</v>
       </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="40">
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="39">
         <v>133.33333333333334</v>
       </c>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18" t="s">
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
       <c r="O55" s="6"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -4624,994 +4661,1235 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
+      <c r="B58" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="15">
+        <v>20</v>
+      </c>
+      <c r="E58" s="15">
+        <v>1</v>
+      </c>
+      <c r="F58" s="15">
+        <v>30</v>
+      </c>
+      <c r="G58" s="15">
+        <v>0</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="15">
+        <v>3000</v>
+      </c>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
       <c r="O58" s="6"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="15">
+        <v>40</v>
+      </c>
+      <c r="E59" s="15">
+        <v>0</v>
+      </c>
+      <c r="F59" s="15">
+        <v>30</v>
+      </c>
+      <c r="G59" s="15">
+        <v>1</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="15">
+        <v>4000</v>
+      </c>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
       <c r="O59" s="6"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="N60" s="6"/>
       <c r="O60" s="6"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="15">
+        <v>30</v>
+      </c>
+      <c r="E61" s="15">
+        <v>0</v>
+      </c>
+      <c r="F61" s="15">
+        <v>40</v>
+      </c>
+      <c r="G61" s="15">
+        <v>0</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="N61" s="6"/>
       <c r="O61" s="6"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="42"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="15">
+        <v>40</v>
+      </c>
+      <c r="E62" s="15">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="N62" s="6"/>
       <c r="O62" s="6"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
-      <c r="L63" s="42"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="42"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="15">
+        <v>30</v>
+      </c>
+      <c r="E63" s="15">
+        <v>0</v>
+      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="N63" s="6"/>
       <c r="O63" s="6"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="42"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="N64" s="6"/>
       <c r="O64" s="6"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="42"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
       <c r="O65" s="6"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
-      <c r="B66" s="42"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="42"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="15">
+        <v>30</v>
+      </c>
+      <c r="E66" s="15">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6"/>
+      <c r="G66" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" s="15">
+        <v>20</v>
+      </c>
+      <c r="I66" s="15">
+        <v>1</v>
+      </c>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
       <c r="O66" s="6"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="42"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="15">
+        <v>30</v>
+      </c>
+      <c r="E67" s="15">
+        <v>1</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="15">
+        <v>40</v>
+      </c>
+      <c r="I67" s="15">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
       <c r="O67" s="6"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="42"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="42"/>
-      <c r="L68" s="42"/>
-      <c r="M68" s="42"/>
-      <c r="N68" s="42"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
       <c r="O68" s="6"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="42"/>
-      <c r="N69" s="42"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
       <c r="O69" s="6"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
-      <c r="B70" s="42"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="42"/>
-      <c r="L70" s="42"/>
-      <c r="M70" s="42"/>
-      <c r="N70" s="42"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="15" cm="1">
+        <f t="array" ref="D70:E71">MINVERSE(D66:E67)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E70" s="15">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" s="15" cm="1">
+        <f t="array" ref="H70:H71">MMULT(_xlfn.ANCHORARRAY(D70),J58:J59)</f>
+        <v>100</v>
+      </c>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
       <c r="O70" s="6"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="42"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
-      <c r="L71" s="42"/>
-      <c r="M71" s="42"/>
-      <c r="N71" s="42"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E71" s="15">
+        <v>1</v>
+      </c>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="15">
+        <v>1000</v>
+      </c>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
       <c r="O71" s="6"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="42"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
       <c r="O72" s="6"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="42"/>
-      <c r="N73" s="42"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
       <c r="O73" s="6"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
-      <c r="B74" s="42"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="42"/>
-      <c r="N74" s="42"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="15" cm="1">
+        <f t="array" ref="D74:E75">MMULT(_xlfn.ANCHORARRAY(D70),H66:I67)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E74" s="15">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
       <c r="O74" s="6"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
-      <c r="L75" s="42"/>
-      <c r="M75" s="42"/>
-      <c r="N75" s="42"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="15">
+        <v>20</v>
+      </c>
+      <c r="E75" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
       <c r="O75" s="6"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="42"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
-      <c r="L76" s="42"/>
-      <c r="M76" s="42"/>
-      <c r="N76" s="42"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
       <c r="O76" s="6"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="6"/>
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="42"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
-      <c r="K77" s="42"/>
-      <c r="L77" s="42"/>
-      <c r="M77" s="42"/>
-      <c r="N77" s="42"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
       <c r="O77" s="6"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
-      <c r="B78" s="42"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
-      <c r="L78" s="42"/>
-      <c r="M78" s="42"/>
-      <c r="N78" s="42"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="15" cm="1">
+        <f t="array" ref="D78:E78">MMULT(D62:E62,_xlfn.ANCHORARRAY(D74))</f>
+        <v>26.666666666666664</v>
+      </c>
+      <c r="E78" s="15">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
       <c r="O78" s="6"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
-      <c r="L79" s="42"/>
-      <c r="M79" s="42"/>
-      <c r="N79" s="42"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="38">
+        <f>D78-D63</f>
+        <v>-3.3333333333333357</v>
+      </c>
+      <c r="E79" s="39">
+        <f>E78-E63</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
       <c r="O79" s="6"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="42"/>
-      <c r="M80" s="42"/>
-      <c r="N80" s="42"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
       <c r="O80" s="6"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
-      <c r="L81" s="42"/>
-      <c r="M81" s="42"/>
-      <c r="N81" s="42"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
       <c r="O81" s="6"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
-      <c r="B82" s="42"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="42"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="42"/>
-      <c r="L82" s="42"/>
-      <c r="M82" s="42"/>
-      <c r="N82" s="42"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="39" cm="1">
+        <f t="array" ref="D82:D83">_xlfn.ANCHORARRAY(H70)/D74:D75</f>
+        <v>150</v>
+      </c>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
       <c r="O82" s="6"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="42"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="42"/>
-      <c r="K83" s="42"/>
-      <c r="L83" s="42"/>
-      <c r="M83" s="42"/>
-      <c r="N83" s="42"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="40">
+        <v>50</v>
+      </c>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
       <c r="O83" s="6"/>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6"/>
-      <c r="B84" s="42"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="42"/>
-      <c r="G84" s="42"/>
-      <c r="H84" s="42"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="42"/>
-      <c r="K84" s="42"/>
-      <c r="L84" s="42"/>
-      <c r="M84" s="42"/>
-      <c r="N84" s="42"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37"/>
       <c r="O84" s="6"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
-      <c r="B85" s="42"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="42"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="42"/>
-      <c r="L85" s="42"/>
-      <c r="M85" s="42"/>
-      <c r="N85" s="42"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
       <c r="O85" s="6"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
-      <c r="B86" s="42"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="42"/>
-      <c r="K86" s="42"/>
-      <c r="L86" s="42"/>
-      <c r="M86" s="42"/>
-      <c r="N86" s="42"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
       <c r="O86" s="6"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="42"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="42"/>
-      <c r="G87" s="42"/>
-      <c r="H87" s="42"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="42"/>
-      <c r="K87" s="42"/>
-      <c r="L87" s="42"/>
-      <c r="M87" s="42"/>
-      <c r="N87" s="42"/>
+      <c r="B87" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="15">
+        <v>0</v>
+      </c>
+      <c r="E87" s="15">
+        <v>1</v>
+      </c>
+      <c r="F87" s="15">
+        <v>30</v>
+      </c>
+      <c r="G87" s="15">
+        <v>20</v>
+      </c>
+      <c r="H87" s="6"/>
+      <c r="I87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J87" s="15">
+        <v>3000</v>
+      </c>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
       <c r="O87" s="6"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="6"/>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="42"/>
-      <c r="K88" s="42"/>
-      <c r="L88" s="42"/>
-      <c r="M88" s="42"/>
-      <c r="N88" s="42"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="15">
+        <v>1</v>
+      </c>
+      <c r="E88" s="15">
+        <v>0</v>
+      </c>
+      <c r="F88" s="15">
+        <v>30</v>
+      </c>
+      <c r="G88" s="15">
+        <v>40</v>
+      </c>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="15">
+        <v>4000</v>
+      </c>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
       <c r="O88" s="6"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="6"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="42"/>
-      <c r="H89" s="42"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="42"/>
-      <c r="K89" s="42"/>
-      <c r="L89" s="42"/>
-      <c r="M89" s="42"/>
-      <c r="N89" s="42"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="N89" s="6"/>
       <c r="O89" s="6"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
-      <c r="B90" s="42"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="42"/>
-      <c r="H90" s="42"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="42"/>
-      <c r="K90" s="42"/>
-      <c r="L90" s="42"/>
-      <c r="M90" s="42"/>
-      <c r="N90" s="42"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" s="15">
+        <v>0</v>
+      </c>
+      <c r="E90" s="15">
+        <v>0</v>
+      </c>
+      <c r="F90" s="15">
+        <v>40</v>
+      </c>
+      <c r="G90" s="15">
+        <v>30</v>
+      </c>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="N90" s="6"/>
       <c r="O90" s="6"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
-      <c r="B91" s="42"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="42"/>
-      <c r="G91" s="42"/>
-      <c r="H91" s="42"/>
-      <c r="I91" s="42"/>
-      <c r="J91" s="42"/>
-      <c r="K91" s="42"/>
-      <c r="L91" s="42"/>
-      <c r="M91" s="24"/>
-      <c r="N91" s="42"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="15">
+        <v>40</v>
+      </c>
+      <c r="E91" s="15">
+        <v>30</v>
+      </c>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="N91" s="6"/>
       <c r="O91" s="6"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
-      <c r="B92" s="42"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
-      <c r="F92" s="42"/>
-      <c r="G92" s="42"/>
-      <c r="H92" s="42"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="42"/>
-      <c r="K92" s="42"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="24"/>
-      <c r="N92" s="42"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="15">
+        <v>0</v>
+      </c>
+      <c r="E92" s="15">
+        <v>0</v>
+      </c>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="N92" s="6"/>
       <c r="O92" s="6"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
-      <c r="B93" s="42"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="42"/>
-      <c r="H93" s="42"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="42"/>
-      <c r="K93" s="42"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="24"/>
-      <c r="N93" s="42"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="N93" s="6"/>
       <c r="O93" s="6"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
-      <c r="B94" s="42"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="42"/>
-      <c r="G94" s="42"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="42"/>
-      <c r="K94" s="42"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
-      <c r="N94" s="42"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
       <c r="O94" s="6"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
-      <c r="B95" s="42"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42"/>
-      <c r="F95" s="42"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="42"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="42"/>
-      <c r="K95" s="42"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="24"/>
-      <c r="N95" s="42"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="15">
+        <v>30</v>
+      </c>
+      <c r="E95" s="15">
+        <v>20</v>
+      </c>
+      <c r="F95" s="6"/>
+      <c r="G95" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H95" s="15">
+        <v>0</v>
+      </c>
+      <c r="I95" s="15">
+        <v>1</v>
+      </c>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
       <c r="O95" s="6"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
-      <c r="B96" s="42"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="42"/>
-      <c r="K96" s="42"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="42"/>
-      <c r="N96" s="42"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="15">
+        <v>30</v>
+      </c>
+      <c r="E96" s="15">
+        <v>40</v>
+      </c>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="15">
+        <v>1</v>
+      </c>
+      <c r="I96" s="15">
+        <v>0</v>
+      </c>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
       <c r="O96" s="6"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42"/>
-      <c r="G97" s="42"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="42"/>
-      <c r="K97" s="42"/>
-      <c r="L97" s="42"/>
-      <c r="M97" s="42"/>
-      <c r="N97" s="42"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
       <c r="O97" s="6"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
-      <c r="B98" s="42"/>
-      <c r="C98" s="42"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="42"/>
-      <c r="F98" s="42"/>
-      <c r="G98" s="42"/>
-      <c r="H98" s="42"/>
-      <c r="I98" s="42"/>
-      <c r="J98" s="42"/>
-      <c r="K98" s="42"/>
-      <c r="L98" s="42"/>
-      <c r="M98" s="42"/>
-      <c r="N98" s="42"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
       <c r="O98" s="6"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="6"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="42"/>
-      <c r="F99" s="42"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="42"/>
-      <c r="I99" s="42"/>
-      <c r="J99" s="42"/>
-      <c r="K99" s="42"/>
-      <c r="L99" s="42"/>
-      <c r="M99" s="42"/>
-      <c r="N99" s="42"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="15" cm="1">
+        <f t="array" ref="D99:E100">MINVERSE(D95:E96)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E99" s="15">
+        <v>-3.3333333333333333E-2</v>
+      </c>
+      <c r="F99" s="6"/>
+      <c r="G99" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="15" cm="1">
+        <f t="array" ref="H99:H100">MMULT(_xlfn.ANCHORARRAY(D99),J87:J88)</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
       <c r="O99" s="6"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
-      <c r="B100" s="42"/>
-      <c r="C100" s="42"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="42"/>
-      <c r="F100" s="42"/>
-      <c r="G100" s="42"/>
-      <c r="H100" s="42"/>
-      <c r="I100" s="42"/>
-      <c r="J100" s="42"/>
-      <c r="K100" s="42"/>
-      <c r="L100" s="42"/>
-      <c r="M100" s="42"/>
-      <c r="N100" s="42"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="15">
+        <v>-0.05</v>
+      </c>
+      <c r="E100" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="15">
+        <v>50</v>
+      </c>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
       <c r="O100" s="6"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
-      <c r="B101" s="42"/>
-      <c r="C101" s="42"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="42"/>
-      <c r="F101" s="42"/>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="42"/>
-      <c r="K101" s="42"/>
-      <c r="L101" s="42"/>
-      <c r="M101" s="42"/>
-      <c r="N101" s="42"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
       <c r="O101" s="6"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
-      <c r="B102" s="42"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="42"/>
-      <c r="F102" s="42"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="42"/>
-      <c r="K102" s="42"/>
-      <c r="L102" s="42"/>
-      <c r="M102" s="42"/>
-      <c r="N102" s="42"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
       <c r="O102" s="6"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
-      <c r="B103" s="42"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="42"/>
-      <c r="F103" s="42"/>
-      <c r="G103" s="42"/>
-      <c r="H103" s="42"/>
-      <c r="I103" s="42"/>
-      <c r="J103" s="42"/>
-      <c r="K103" s="42"/>
-      <c r="L103" s="42"/>
-      <c r="M103" s="42"/>
-      <c r="N103" s="42"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="15" cm="1">
+        <f t="array" ref="D103:E104">MMULT(_xlfn.ANCHORARRAY(D99),H95:I96)</f>
+        <v>-3.3333333333333333E-2</v>
+      </c>
+      <c r="E103" s="15">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
       <c r="O103" s="6"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
-      <c r="B104" s="42"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="42"/>
-      <c r="E104" s="42"/>
-      <c r="F104" s="42"/>
-      <c r="G104" s="42"/>
-      <c r="H104" s="42"/>
-      <c r="I104" s="42"/>
-      <c r="J104" s="42"/>
-      <c r="K104" s="42"/>
-      <c r="L104" s="42"/>
-      <c r="M104" s="42"/>
-      <c r="N104" s="42"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="E104" s="15">
+        <v>-0.05</v>
+      </c>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
       <c r="O104" s="6"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
-      <c r="B105" s="42"/>
-      <c r="C105" s="42"/>
-      <c r="D105" s="42"/>
-      <c r="E105" s="42"/>
-      <c r="F105" s="42"/>
-      <c r="G105" s="42"/>
-      <c r="H105" s="42"/>
-      <c r="I105" s="42"/>
-      <c r="J105" s="42"/>
-      <c r="K105" s="42"/>
-      <c r="L105" s="42"/>
-      <c r="M105" s="42"/>
-      <c r="N105" s="42"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
       <c r="O105" s="6"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
-      <c r="B106" s="42"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="42"/>
-      <c r="F106" s="42"/>
-      <c r="G106" s="42"/>
-      <c r="H106" s="42"/>
-      <c r="I106" s="42"/>
-      <c r="J106" s="42"/>
-      <c r="K106" s="42"/>
-      <c r="L106" s="42"/>
-      <c r="M106" s="42"/>
-      <c r="N106" s="42"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="6"/>
+      <c r="N106" s="6"/>
       <c r="O106" s="6"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
-      <c r="B107" s="42"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="42"/>
-      <c r="E107" s="42"/>
-      <c r="F107" s="42"/>
-      <c r="G107" s="42"/>
-      <c r="H107" s="42"/>
-      <c r="I107" s="42"/>
-      <c r="J107" s="42"/>
-      <c r="K107" s="42"/>
-      <c r="L107" s="42"/>
-      <c r="M107" s="42"/>
-      <c r="N107" s="42"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="15" cm="1">
+        <f t="array" ref="D107:E107">MMULT(D91:E91,_xlfn.ANCHORARRAY(D103))</f>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="E107" s="15">
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="6"/>
+      <c r="N107" s="6"/>
       <c r="O107" s="6"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
-      <c r="B108" s="42"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="42"/>
-      <c r="E108" s="42"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="42"/>
-      <c r="H108" s="42"/>
-      <c r="I108" s="42"/>
-      <c r="J108" s="42"/>
-      <c r="K108" s="42"/>
-      <c r="L108" s="42"/>
-      <c r="M108" s="42"/>
-      <c r="N108" s="42"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="41">
+        <f>D107-D92</f>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="E108" s="41">
+        <f>E107-E92</f>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
       <c r="O108" s="6"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="6"/>
-      <c r="B109" s="42"/>
-      <c r="C109" s="42"/>
-      <c r="D109" s="42"/>
-      <c r="E109" s="42"/>
-      <c r="F109" s="42"/>
-      <c r="G109" s="42"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="42"/>
-      <c r="J109" s="42"/>
-      <c r="K109" s="42"/>
-      <c r="L109" s="42"/>
-      <c r="M109" s="42"/>
-      <c r="N109" s="42"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="37"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="37"/>
+      <c r="I109" s="37"/>
+      <c r="J109" s="37"/>
+      <c r="K109" s="37"/>
+      <c r="L109" s="37"/>
+      <c r="M109" s="37"/>
+      <c r="N109" s="37"/>
       <c r="O109" s="6"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="42"/>
-      <c r="E110" s="42"/>
-      <c r="F110" s="42"/>
-      <c r="G110" s="42"/>
-      <c r="H110" s="42"/>
-      <c r="I110" s="42"/>
-      <c r="J110" s="42"/>
-      <c r="K110" s="42"/>
-      <c r="L110" s="42"/>
-      <c r="M110" s="42"/>
-      <c r="N110" s="24"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
       <c r="O110" s="6"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="25"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="24"/>
       <c r="D111" s="42"/>
       <c r="E111" s="42"/>
       <c r="F111" s="42"/>
       <c r="G111" s="42"/>
       <c r="H111" s="42"/>
-      <c r="I111" s="42"/>
-      <c r="J111" s="42"/>
-      <c r="K111" s="42"/>
-      <c r="L111" s="42"/>
-      <c r="M111" s="42"/>
-      <c r="N111" s="24"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
       <c r="O111" s="6"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="42"/>
+      <c r="B112" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" s="27" cm="1">
+        <f t="array" ref="C112">MMULT(D91:E91,_xlfn.ANCHORARRAY(H99))</f>
+        <v>4166.6666666666661</v>
+      </c>
       <c r="D112" s="42"/>
       <c r="E112" s="42"/>
       <c r="F112" s="42"/>
       <c r="G112" s="42"/>
       <c r="H112" s="42"/>
-      <c r="I112" s="42"/>
-      <c r="J112" s="42"/>
-      <c r="K112" s="42"/>
-      <c r="L112" s="42"/>
-      <c r="M112" s="42"/>
-      <c r="N112" s="24"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
       <c r="O112" s="6"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="24"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="24"/>
-      <c r="K113" s="24"/>
-      <c r="L113" s="24"/>
-      <c r="M113" s="24"/>
-      <c r="N113" s="24"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="29"/>
       <c r="O113" s="6"/>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="24"/>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24"/>
-      <c r="H114" s="24"/>
-      <c r="I114" s="24"/>
-      <c r="J114" s="24"/>
-      <c r="K114" s="24"/>
-      <c r="L114" s="24"/>
-      <c r="M114" s="24"/>
-      <c r="N114" s="24"/>
+      <c r="B114" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" s="29">
+        <v>50</v>
+      </c>
       <c r="O114" s="6"/>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
-      <c r="B115" s="42"/>
-      <c r="C115" s="42"/>
+      <c r="B115" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C115" s="29">
+        <v>66.667000000000002</v>
+      </c>
       <c r="D115" s="42"/>
       <c r="E115" s="42"/>
       <c r="F115" s="42"/>
@@ -5627,8 +5905,12 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
-      <c r="B116" s="42"/>
-      <c r="C116" s="25"/>
+      <c r="B116" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C116" s="29">
+        <v>0</v>
+      </c>
       <c r="D116" s="42"/>
       <c r="E116" s="42"/>
       <c r="F116" s="42"/>
@@ -5644,8 +5926,12 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
-      <c r="B117" s="42"/>
-      <c r="C117" s="42"/>
+      <c r="B117" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C117" s="29">
+        <v>0</v>
+      </c>
       <c r="D117" s="42"/>
       <c r="E117" s="42"/>
       <c r="F117" s="42"/>
@@ -5661,8 +5947,12 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
+      <c r="B118" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C118" s="29">
+        <v>1.167</v>
+      </c>
       <c r="D118" s="42"/>
       <c r="E118" s="42"/>
       <c r="F118" s="42"/>
@@ -5676,9 +5966,13 @@
       <c r="N118" s="42"/>
       <c r="O118" s="6"/>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B119" s="25"/>
-      <c r="C119" s="25"/>
+    <row r="119" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" s="31">
+        <v>0.16700000000000001</v>
+      </c>
       <c r="D119" s="42"/>
       <c r="E119" s="42"/>
       <c r="F119" s="42"/>
@@ -5692,8 +5986,8 @@
       <c r="N119" s="42"/>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
       <c r="D120" s="42"/>
       <c r="E120" s="42"/>
       <c r="F120" s="42"/>
@@ -5707,8 +6001,8 @@
       <c r="N120" s="42"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B121" s="25"/>
-      <c r="C121" s="25"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="24"/>
       <c r="D121" s="42"/>
       <c r="E121" s="42"/>
       <c r="F121" s="42"/>
@@ -5722,8 +6016,8 @@
       <c r="N121" s="42"/>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B122" s="25"/>
-      <c r="C122" s="25"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="24"/>
       <c r="D122" s="42"/>
       <c r="E122" s="42"/>
       <c r="F122" s="42"/>
@@ -5737,8 +6031,8 @@
       <c r="N122" s="42"/>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B123" s="25"/>
-      <c r="C123" s="25"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="24"/>
       <c r="D123" s="42"/>
       <c r="E123" s="42"/>
       <c r="F123" s="42"/>
@@ -5752,8 +6046,8 @@
       <c r="N123" s="42"/>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B124" s="25"/>
-      <c r="C124" s="25"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="24"/>
       <c r="D124" s="42"/>
       <c r="E124" s="42"/>
       <c r="F124" s="42"/>
@@ -5767,8 +6061,8 @@
       <c r="N124" s="42"/>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B125" s="25"/>
-      <c r="C125" s="25"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="24"/>
       <c r="D125" s="42"/>
       <c r="E125" s="42"/>
       <c r="F125" s="42"/>
@@ -5797,19 +6091,19 @@
       <c r="N126" s="42"/>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B127" s="24"/>
-      <c r="C127" s="24"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
-      <c r="G127" s="24"/>
-      <c r="H127" s="24"/>
-      <c r="I127" s="24"/>
-      <c r="J127" s="24"/>
-      <c r="K127" s="24"/>
-      <c r="L127" s="24"/>
-      <c r="M127" s="24"/>
-      <c r="N127" s="24"/>
+      <c r="B127" s="23"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="23"/>
+      <c r="I127" s="23"/>
+      <c r="J127" s="23"/>
+      <c r="K127" s="23"/>
+      <c r="L127" s="23"/>
+      <c r="M127" s="23"/>
+      <c r="N127" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5821,10 +6115,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749138C6-207D-4870-9328-3988BAD3BB95}">
-  <dimension ref="A1:O92"/>
+  <dimension ref="A1:O164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N89" sqref="N89"/>
+    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="M155" sqref="M155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5835,7 +6129,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>71</v>
       </c>
       <c r="B1" s="6"/>
@@ -5874,7 +6168,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="34"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="8" t="s">
@@ -5893,7 +6187,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>90</v>
       </c>
       <c r="C4" s="6"/>
@@ -5912,30 +6206,27 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>91</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="J5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="17" t="s">
-        <v>105</v>
+      <c r="K5" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -5943,11 +6234,11 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="6"/>
@@ -5961,15 +6252,12 @@
         <v>1</v>
       </c>
       <c r="I6" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="40">
         <v>0</v>
       </c>
       <c r="N6" s="7" t="s">
@@ -5981,11 +6269,11 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="6"/>
@@ -6000,12 +6288,9 @@
         <v>0</v>
       </c>
       <c r="J7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="15">
-        <v>1</v>
-      </c>
-      <c r="L7" s="40">
         <v>0</v>
       </c>
       <c r="N7" s="6"/>
@@ -6015,12 +6300,12 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="17" t="s">
-        <v>104</v>
+      <c r="D8" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -6031,15 +6316,12 @@
         <v>0</v>
       </c>
       <c r="I8" s="15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="15">
         <v>0</v>
       </c>
       <c r="K8" s="15">
-        <v>0</v>
-      </c>
-      <c r="L8" s="15">
         <v>1</v>
       </c>
       <c r="M8" s="6"/>
@@ -6050,11 +6332,11 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>92</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="6"/>
@@ -6066,11 +6348,11 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>93</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="45" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="6"/>
@@ -6092,22 +6374,18 @@
       <c r="K10" s="15">
         <v>0</v>
       </c>
-      <c r="L10" s="15">
-        <v>-1000</v>
-      </c>
+      <c r="L10" s="17"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="17" t="s">
-        <v>105</v>
-      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7" t="s">
         <v>21</v>
@@ -6119,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="15">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -6130,9 +6408,9 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="7" t="s">
         <v>22</v>
       </c>
@@ -6142,25 +6420,23 @@
       <c r="H12" s="15">
         <v>2</v>
       </c>
-      <c r="I12" s="15">
-        <v>0</v>
-      </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="M12" s="18"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="M12" s="17"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>95</v>
       </c>
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>96</v>
       </c>
       <c r="O14" s="6"/>
@@ -6172,8 +6448,8 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="34" t="s">
-        <v>106</v>
+      <c r="B16" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="O16" s="6"/>
     </row>
@@ -6196,7 +6472,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>98</v>
       </c>
       <c r="C18" s="6"/>
@@ -6215,7 +6491,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>99</v>
       </c>
       <c r="C19" s="6"/>
@@ -6234,7 +6510,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>100</v>
       </c>
       <c r="C20" s="6"/>
@@ -6253,7 +6529,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="6"/>
@@ -6285,11 +6561,11 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="18"/>
+      <c r="O22" s="17"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>101</v>
       </c>
       <c r="C23" s="6"/>
@@ -6304,11 +6580,11 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="18"/>
+      <c r="O23" s="17"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>102</v>
       </c>
       <c r="C24" s="6"/>
@@ -6323,12 +6599,12 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="18"/>
+      <c r="O24" s="17"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
-      <c r="B25" s="36" t="s">
-        <v>103</v>
+      <c r="B25" s="35" t="s">
+        <v>105</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -6342,23 +6618,23 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="18"/>
+      <c r="O25" s="17"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -6382,28 +6658,26 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="17" t="s">
+      <c r="G28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
+      <c r="H28" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
     </row>
@@ -6422,24 +6696,23 @@
         <v>1</v>
       </c>
       <c r="F29" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="15">
         <v>0</v>
       </c>
-      <c r="I29" s="40">
-        <v>0</v>
-      </c>
-      <c r="K29" s="7" t="s">
+      <c r="I29" s="42"/>
+      <c r="J29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="15">
+      <c r="K29" s="15">
         <v>100</v>
       </c>
-      <c r="M29" s="6"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
     </row>
@@ -6457,19 +6730,18 @@
         <v>0</v>
       </c>
       <c r="G30" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="15">
-        <v>1</v>
-      </c>
-      <c r="I30" s="40">
-        <v>0</v>
-      </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="I30" s="42"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="15">
         <v>80</v>
       </c>
-      <c r="M30" s="6"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
     </row>
@@ -6484,23 +6756,21 @@
         <v>0</v>
       </c>
       <c r="F31" s="15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="15">
         <v>0</v>
       </c>
       <c r="H31" s="15">
-        <v>0</v>
-      </c>
-      <c r="I31" s="15">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" s="17"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="15">
+      <c r="K31" s="15">
         <v>40</v>
       </c>
-      <c r="M31" s="6"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
     </row>
@@ -6508,11 +6778,11 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
     </row>
@@ -6537,13 +6807,11 @@
       <c r="H33" s="15">
         <v>0</v>
       </c>
-      <c r="I33" s="15">
-        <v>-1000</v>
-      </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
     </row>
@@ -6560,14 +6828,15 @@
         <v>0</v>
       </c>
       <c r="F34" s="15">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
     </row>
@@ -6583,45 +6852,53 @@
       <c r="E35" s="15">
         <v>2</v>
       </c>
-      <c r="F35" s="15">
-        <v>0</v>
-      </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="17" t="s">
-        <v>105</v>
+      <c r="F37" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="H37" s="6"/>
-      <c r="I37" s="17" t="s">
+      <c r="I37" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="17" t="s">
+      <c r="J37" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K37" s="17" t="s">
-        <v>104</v>
-      </c>
+      <c r="K37" s="19"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
@@ -6638,7 +6915,7 @@
       <c r="E38" s="15">
         <v>0</v>
       </c>
-      <c r="F38" s="40">
+      <c r="F38" s="15">
         <v>0</v>
       </c>
       <c r="H38" s="7" t="s">
@@ -6650,9 +6927,7 @@
       <c r="J38" s="15">
         <v>1</v>
       </c>
-      <c r="K38" s="15">
-        <v>0</v>
-      </c>
+      <c r="K38" s="17"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
@@ -6667,7 +6942,7 @@
       <c r="E39" s="15">
         <v>1</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F39" s="15">
         <v>0</v>
       </c>
       <c r="H39" s="6"/>
@@ -6677,9 +6952,7 @@
       <c r="J39" s="15">
         <v>1</v>
       </c>
-      <c r="K39" s="15">
-        <v>0</v>
-      </c>
+      <c r="K39" s="17"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
@@ -6705,9 +6978,7 @@
       <c r="J40" s="15">
         <v>0</v>
       </c>
-      <c r="K40" s="15">
-        <v>-1</v>
-      </c>
+      <c r="K40" s="17"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
@@ -6750,7 +7021,7 @@
         <v>13</v>
       </c>
       <c r="I42" s="15" cm="1">
-        <f t="array" ref="I42:I44">MMULT(_xlfn.ANCHORARRAY(D42),L29:L31)</f>
+        <f t="array" ref="I42:I44">MMULT(_xlfn.ANCHORARRAY(D42),K29:K31)</f>
         <v>100</v>
       </c>
       <c r="J42" s="6"/>
@@ -6836,15 +7107,13 @@
         <v>23</v>
       </c>
       <c r="D47" s="15" cm="1">
-        <f t="array" ref="D47:F49">MMULT(_xlfn.ANCHORARRAY(D42),I38:K40)</f>
+        <f t="array" ref="D47:E49">MMULT(_xlfn.ANCHORARRAY(D42),I38:J40)</f>
         <v>2</v>
       </c>
       <c r="E47" s="15">
         <v>1</v>
       </c>
-      <c r="F47" s="15">
-        <v>0</v>
-      </c>
+      <c r="F47" s="17"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -6865,9 +7134,7 @@
       <c r="E48" s="15">
         <v>1</v>
       </c>
-      <c r="F48" s="15">
-        <v>0</v>
-      </c>
+      <c r="F48" s="17"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -6888,9 +7155,7 @@
       <c r="E49" s="15">
         <v>0</v>
       </c>
-      <c r="F49" s="15">
-        <v>-1</v>
-      </c>
+      <c r="F49" s="17"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -6928,16 +7193,14 @@
       <c r="C52" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="18" cm="1">
-        <f t="array" ref="D52:F52">MMULT(D34:F34,_xlfn.ANCHORARRAY(D47))</f>
-        <v>-1000</v>
-      </c>
-      <c r="E52" s="18">
-        <v>0</v>
-      </c>
-      <c r="F52" s="18">
-        <v>1000</v>
-      </c>
+      <c r="D52" s="17" cm="1">
+        <f t="array" ref="D52:E52">MMULT(D34:F34,_xlfn.ANCHORARRAY(D47))</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="17">
+        <v>0</v>
+      </c>
+      <c r="F52" s="17"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -6954,18 +7217,15 @@
       <c r="C53" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="39">
-        <f>D52-D34</f>
-        <v>-1000</v>
-      </c>
-      <c r="E53" s="40">
-        <f t="shared" ref="E53:F53" si="0">E52-E34</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="40">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
+      <c r="D53" s="38">
+        <f>D52-D35</f>
+        <v>-3</v>
+      </c>
+      <c r="E53" s="39">
+        <f>E52-E35</f>
+        <v>-2</v>
+      </c>
+      <c r="F53" s="42"/>
       <c r="H53" s="6" t="s">
         <v>28</v>
       </c>
@@ -7013,91 +7273,89 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="20" t="s">
+      <c r="B56" s="17"/>
+      <c r="C56" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D56" s="41" cm="1">
+      <c r="D56" s="39" cm="1">
         <f t="array" ref="D56:D58">_xlfn.ANCHORARRAY(I42)/D47:D49</f>
         <v>50</v>
       </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="40">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="39">
         <v>80</v>
       </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="H57" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="H57" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D58" s="16">
+      <c r="D58" s="46">
         <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E61" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G61" s="17" t="s">
+      <c r="G61" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H61" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
       <c r="N61" s="6"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -7108,30 +7366,29 @@
         <v>6</v>
       </c>
       <c r="D62" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="15">
         <v>1</v>
       </c>
       <c r="F62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="15">
+        <v>0</v>
+      </c>
+      <c r="H62" s="15">
         <v>2</v>
       </c>
-      <c r="H62" s="15">
-        <v>0</v>
-      </c>
-      <c r="I62" s="40">
-        <v>0</v>
-      </c>
-      <c r="K62" s="7" t="s">
+      <c r="I62" s="42"/>
+      <c r="J62" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L62" s="15">
+      <c r="K62" s="15">
         <v>100</v>
       </c>
-      <c r="M62" s="6"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
       <c r="N62" s="6"/>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -7152,53 +7409,50 @@
       <c r="H63" s="15">
         <v>1</v>
       </c>
-      <c r="I63" s="40">
-        <v>0</v>
-      </c>
-      <c r="K63" s="6"/>
-      <c r="L63" s="15">
+      <c r="I63" s="42"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="15">
         <v>80</v>
       </c>
-      <c r="M63" s="6"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
       <c r="N63" s="6"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="15">
         <v>0</v>
       </c>
       <c r="F64" s="15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" s="15">
-        <v>0</v>
-      </c>
-      <c r="I64" s="15">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" s="17"/>
       <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="15">
+      <c r="K64" s="15">
         <v>40</v>
       </c>
-      <c r="M64" s="6"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
       <c r="N64" s="6"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
       <c r="N65" s="6"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.3">
@@ -7216,18 +7470,16 @@
         <v>0</v>
       </c>
       <c r="G66" s="15">
+        <v>0</v>
+      </c>
+      <c r="H66" s="15">
         <v>3</v>
       </c>
-      <c r="H66" s="15">
-        <v>0</v>
-      </c>
-      <c r="I66" s="15">
-        <v>-1000</v>
-      </c>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
       <c r="N66" s="6"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.3">
@@ -7236,20 +7488,21 @@
         <v>21</v>
       </c>
       <c r="D67" s="15">
+        <v>0</v>
+      </c>
+      <c r="E67" s="15">
+        <v>0</v>
+      </c>
+      <c r="F67" s="15">
         <v>3</v>
-      </c>
-      <c r="E67" s="15">
-        <v>0</v>
-      </c>
-      <c r="F67" s="15">
-        <v>-1000</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
       <c r="N67" s="6"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.3">
@@ -7263,39 +7516,49 @@
       <c r="E68" s="15">
         <v>2</v>
       </c>
-      <c r="F68" s="15">
-        <v>0</v>
-      </c>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
       <c r="N68" s="6"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="17" t="s">
-        <v>105</v>
-      </c>
       <c r="H70" s="6"/>
-      <c r="I70" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="J70" s="17" t="s">
+      <c r="I70" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J70" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K70" s="17" t="s">
-        <v>104</v>
-      </c>
+      <c r="K70" s="19"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
     </row>
@@ -7305,26 +7568,24 @@
         <v>19</v>
       </c>
       <c r="D71" s="15">
+        <v>1</v>
+      </c>
+      <c r="E71" s="15">
+        <v>0</v>
+      </c>
+      <c r="F71" s="15">
         <v>2</v>
-      </c>
-      <c r="E71" s="15">
-        <v>0</v>
-      </c>
-      <c r="F71" s="40">
-        <v>0</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I71" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" s="15">
         <v>1</v>
       </c>
-      <c r="K71" s="15">
-        <v>0</v>
-      </c>
+      <c r="K71" s="17"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
     </row>
@@ -7332,13 +7593,13 @@
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" s="15">
         <v>1</v>
       </c>
-      <c r="F72" s="40">
-        <v>0</v>
+      <c r="F72" s="15">
+        <v>1</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="15">
@@ -7347,9 +7608,7 @@
       <c r="J72" s="15">
         <v>1</v>
       </c>
-      <c r="K72" s="15">
-        <v>0</v>
-      </c>
+      <c r="K72" s="17"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
     </row>
@@ -7357,7 +7616,7 @@
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" s="15">
         <v>0</v>
@@ -7368,14 +7627,12 @@
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="15">
         <v>0</v>
       </c>
-      <c r="K73" s="15">
-        <v>-1</v>
-      </c>
+      <c r="K73" s="17"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
@@ -7402,20 +7659,20 @@
       </c>
       <c r="D75" s="15" cm="1">
         <f t="array" ref="D75:F77">MINVERSE(D71:F73)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E75" s="15">
         <v>0</v>
       </c>
       <c r="F75" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>13</v>
       </c>
       <c r="I75" s="15" cm="1">
-        <f t="array" ref="I75:I77">MMULT(_xlfn.ANCHORARRAY(D75),L62:L64)</f>
-        <v>50</v>
+        <f t="array" ref="I75:I77">MMULT(_xlfn.ANCHORARRAY(D75),K62:K64)</f>
+        <v>20</v>
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
@@ -7427,17 +7684,17 @@
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="15">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E76" s="15">
         <v>1</v>
       </c>
       <c r="F76" s="15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="15">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J76" s="6"/>
       <c r="K76" s="6"/>
@@ -7449,7 +7706,7 @@
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="15">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E77" s="15">
         <v>0</v>
@@ -7459,7 +7716,7 @@
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="15">
-        <v>-10</v>
+        <v>40</v>
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="6"/>
@@ -7488,15 +7745,13 @@
         <v>23</v>
       </c>
       <c r="D80" s="15" cm="1">
-        <f t="array" ref="D80:F82">MMULT(_xlfn.ANCHORARRAY(D75),I71:K73)</f>
-        <v>0.5</v>
+        <f t="array" ref="D80:E82">MMULT(_xlfn.ANCHORARRAY(D75),I71:J73)</f>
+        <v>-2</v>
       </c>
       <c r="E80" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="F80" s="15">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F80" s="17"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
@@ -7510,14 +7765,12 @@
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="E81" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="F81" s="15">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F81" s="17"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
@@ -7531,14 +7784,12 @@
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="15">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="E82" s="15">
-        <v>-0.5</v>
-      </c>
-      <c r="F82" s="15">
-        <v>-1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F82" s="17"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
@@ -7568,16 +7819,14 @@
       <c r="C85" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="18" cm="1">
-        <f t="array" ref="D85:F85">MMULT(D67:F67,_xlfn.ANCHORARRAY(D80))</f>
-        <v>501.5</v>
-      </c>
-      <c r="E85" s="18">
-        <v>501.5</v>
-      </c>
-      <c r="F85" s="18">
-        <v>1000</v>
-      </c>
+      <c r="D85" s="17" cm="1">
+        <f t="array" ref="D85:E85">MMULT(D67:F67,_xlfn.ANCHORARRAY(D80))</f>
+        <v>3</v>
+      </c>
+      <c r="E85" s="17">
+        <v>0</v>
+      </c>
+      <c r="F85" s="17"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
@@ -7593,19 +7842,16 @@
         <v>25</v>
       </c>
       <c r="D86" s="39">
-        <f>D85-D67</f>
-        <v>498.5</v>
-      </c>
-      <c r="E86" s="40">
-        <f t="shared" ref="E86" si="1">E85-E67</f>
-        <v>501.5</v>
-      </c>
-      <c r="F86" s="40">
-        <f t="shared" ref="F86" si="2">F85-F67</f>
-        <v>2000</v>
-      </c>
+        <f>D85-D68</f>
+        <v>3</v>
+      </c>
+      <c r="E86" s="38">
+        <f>E85-E68</f>
+        <v>-2</v>
+      </c>
+      <c r="F86" s="42"/>
       <c r="H86" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
@@ -7645,62 +7891,1303 @@
       <c r="N88" s="6"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B89" s="18"/>
-      <c r="C89" s="20" t="s">
+      <c r="B89" s="17"/>
+      <c r="C89" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D89" s="41" cm="1">
-        <f t="array" ref="D89:D91">_xlfn.ANCHORARRAY(I75)/D80:D82</f>
-        <v>100</v>
-      </c>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
+      <c r="D89" s="40" cm="1">
+        <f t="array" ref="D89:D91">_xlfn.ANCHORARRAY(I75)/E80:E82</f>
+        <v>20</v>
+      </c>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="40">
-        <v>-60</v>
-      </c>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="H90" s="18" t="s">
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="39">
+        <v>40</v>
+      </c>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="H90" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D91" s="16">
+      <c r="D91" s="47" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="37"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="37"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="19"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="6"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B95" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="15">
+        <v>0</v>
+      </c>
+      <c r="E95" s="15">
+        <v>1</v>
+      </c>
+      <c r="F95" s="15">
+        <v>1</v>
+      </c>
+      <c r="G95" s="15">
+        <v>0</v>
+      </c>
+      <c r="H95" s="15">
+        <v>2</v>
+      </c>
+      <c r="I95" s="42"/>
+      <c r="J95" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K95" s="15">
+        <v>100</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="6"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="15">
+        <v>0</v>
+      </c>
+      <c r="E96" s="15">
+        <v>0</v>
+      </c>
+      <c r="F96" s="15">
+        <v>1</v>
+      </c>
+      <c r="G96" s="15">
+        <v>1</v>
+      </c>
+      <c r="H96" s="15">
+        <v>1</v>
+      </c>
+      <c r="I96" s="42"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="15">
+        <v>80</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="6"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="15">
+        <v>1</v>
+      </c>
+      <c r="E97" s="15">
+        <v>0</v>
+      </c>
+      <c r="F97" s="15">
+        <v>0</v>
+      </c>
+      <c r="G97" s="15">
+        <v>0</v>
+      </c>
+      <c r="H97" s="15">
+        <v>1</v>
+      </c>
+      <c r="I97" s="17"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="15">
+        <v>40</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="6"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="6"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B99" s="6"/>
+      <c r="C99" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="92" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
-      <c r="K92" s="38"/>
-      <c r="L92" s="38"/>
-      <c r="M92" s="38"/>
-      <c r="N92" s="38"/>
+      <c r="D99" s="15">
+        <v>0</v>
+      </c>
+      <c r="E99" s="15">
+        <v>0</v>
+      </c>
+      <c r="F99" s="15">
+        <v>2</v>
+      </c>
+      <c r="G99" s="15">
+        <v>0</v>
+      </c>
+      <c r="H99" s="15">
+        <v>3</v>
+      </c>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="6"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B100" s="6"/>
+      <c r="C100" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="15">
+        <v>2</v>
+      </c>
+      <c r="E100" s="15">
+        <v>0</v>
+      </c>
+      <c r="F100" s="15">
+        <v>3</v>
+      </c>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="6"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B101" s="6"/>
+      <c r="C101" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="15">
+        <v>0</v>
+      </c>
+      <c r="E101" s="15">
+        <v>0</v>
+      </c>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="6"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="6"/>
+      <c r="I103" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J103" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103" s="19"/>
+      <c r="N103" s="6"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B104" s="6"/>
+      <c r="C104" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="15">
+        <v>1</v>
+      </c>
+      <c r="E104" s="15">
+        <v>0</v>
+      </c>
+      <c r="F104" s="15">
+        <v>2</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I104" s="15">
+        <v>0</v>
+      </c>
+      <c r="J104" s="15">
+        <v>1</v>
+      </c>
+      <c r="K104" s="17"/>
+      <c r="N104" s="6"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="15">
+        <v>1</v>
+      </c>
+      <c r="E105" s="15">
+        <v>1</v>
+      </c>
+      <c r="F105" s="15">
+        <v>1</v>
+      </c>
+      <c r="H105" s="6"/>
+      <c r="I105" s="15">
+        <v>0</v>
+      </c>
+      <c r="J105" s="15">
+        <v>0</v>
+      </c>
+      <c r="K105" s="17"/>
+      <c r="N105" s="6"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="15">
+        <v>0</v>
+      </c>
+      <c r="E106" s="15">
+        <v>0</v>
+      </c>
+      <c r="F106" s="15">
+        <v>1</v>
+      </c>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="15">
+        <v>1</v>
+      </c>
+      <c r="J106" s="15">
+        <v>0</v>
+      </c>
+      <c r="K106" s="17"/>
+      <c r="L106" s="6"/>
+      <c r="N106" s="6"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="N107" s="6"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B108" s="6"/>
+      <c r="C108" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="15" cm="1">
+        <f t="array" ref="D108:F110">MINVERSE(D104:F106)</f>
+        <v>1</v>
+      </c>
+      <c r="E108" s="15">
+        <v>0</v>
+      </c>
+      <c r="F108" s="15">
+        <v>-2</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" s="15" cm="1">
+        <f t="array" ref="I108:I110">MMULT(_xlfn.ANCHORARRAY(D108),K95:K97)</f>
+        <v>20</v>
+      </c>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="6"/>
+      <c r="N108" s="6"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E109" s="15">
+        <v>1</v>
+      </c>
+      <c r="F109" s="15">
+        <v>1</v>
+      </c>
+      <c r="H109" s="6"/>
+      <c r="I109" s="15">
+        <v>20</v>
+      </c>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="6"/>
+      <c r="N109" s="6"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="15">
+        <v>0</v>
+      </c>
+      <c r="E110" s="15">
+        <v>0</v>
+      </c>
+      <c r="F110" s="15">
+        <v>1</v>
+      </c>
+      <c r="H110" s="6"/>
+      <c r="I110" s="15">
+        <v>40</v>
+      </c>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B113" s="6"/>
+      <c r="C113" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="15" cm="1">
+        <f t="array" ref="D113:E115">MMULT(_xlfn.ANCHORARRAY(D108),I104:J106)</f>
+        <v>-2</v>
+      </c>
+      <c r="E113" s="15">
+        <v>1</v>
+      </c>
+      <c r="F113" s="17"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
+      <c r="N113" s="6"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="15">
+        <v>1</v>
+      </c>
+      <c r="E114" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F114" s="17"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="6"/>
+      <c r="N114" s="6"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="15">
+        <v>1</v>
+      </c>
+      <c r="E115" s="15">
+        <v>0</v>
+      </c>
+      <c r="F115" s="17"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6"/>
+      <c r="N116" s="6"/>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B118" s="6"/>
+      <c r="C118" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" s="17" cm="1">
+        <f t="array" ref="D118:E118">MMULT(D100:F100,_xlfn.ANCHORARRAY(D113))</f>
+        <v>-1</v>
+      </c>
+      <c r="E118" s="17">
+        <v>2</v>
+      </c>
+      <c r="F118" s="17"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B119" s="6"/>
+      <c r="C119" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D119" s="38">
+        <f>D118-D101</f>
+        <v>-1</v>
+      </c>
+      <c r="E119" s="39">
+        <f>E118-E101</f>
+        <v>2</v>
+      </c>
+      <c r="F119" s="42"/>
+      <c r="H119" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="6"/>
+      <c r="M121" s="6"/>
+      <c r="N121" s="6"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B122" s="17"/>
+      <c r="C122" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" s="39" cm="1">
+        <f t="array" ref="D122:D124">_xlfn.ANCHORARRAY(I108)/D113:D115</f>
+        <v>-10</v>
+      </c>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+      <c r="M122" s="6"/>
+      <c r="N122" s="6"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="40">
+        <v>20</v>
+      </c>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="H123" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="6"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D124" s="47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="37"/>
+      <c r="C125" s="37"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="37"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="37"/>
+      <c r="K125" s="37"/>
+      <c r="L125" s="37"/>
+      <c r="M125" s="37"/>
+      <c r="N125" s="37"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" s="19"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="6"/>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B128" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="15">
+        <v>0</v>
+      </c>
+      <c r="E128" s="15">
+        <v>0</v>
+      </c>
+      <c r="F128" s="15">
+        <v>1</v>
+      </c>
+      <c r="G128" s="15">
+        <v>1</v>
+      </c>
+      <c r="H128" s="15">
+        <v>2</v>
+      </c>
+      <c r="I128" s="42"/>
+      <c r="J128" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K128" s="15">
+        <v>100</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="6"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="15">
+        <v>0</v>
+      </c>
+      <c r="E129" s="15">
+        <v>1</v>
+      </c>
+      <c r="F129" s="15">
+        <v>1</v>
+      </c>
+      <c r="G129" s="15">
+        <v>0</v>
+      </c>
+      <c r="H129" s="15">
+        <v>1</v>
+      </c>
+      <c r="I129" s="42"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="15">
+        <v>80</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="6"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="15">
+        <v>1</v>
+      </c>
+      <c r="E130" s="15">
+        <v>0</v>
+      </c>
+      <c r="F130" s="15">
+        <v>0</v>
+      </c>
+      <c r="G130" s="15">
+        <v>0</v>
+      </c>
+      <c r="H130" s="15">
+        <v>1</v>
+      </c>
+      <c r="I130" s="17"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="15">
+        <v>40</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="6"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="6"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B132" s="6"/>
+      <c r="C132" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" s="15">
+        <v>0</v>
+      </c>
+      <c r="E132" s="15">
+        <v>0</v>
+      </c>
+      <c r="F132" s="15">
+        <v>2</v>
+      </c>
+      <c r="G132" s="15">
+        <v>0</v>
+      </c>
+      <c r="H132" s="15">
+        <v>3</v>
+      </c>
+      <c r="I132" s="17"/>
+      <c r="J132" s="17"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B133" s="6"/>
+      <c r="C133" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" s="15">
+        <v>2</v>
+      </c>
+      <c r="E133" s="15">
+        <v>0</v>
+      </c>
+      <c r="F133" s="15">
+        <v>3</v>
+      </c>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B134" s="6"/>
+      <c r="C134" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D134" s="15">
+        <v>0</v>
+      </c>
+      <c r="E134" s="15">
+        <v>0</v>
+      </c>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="17"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F136" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H136" s="6"/>
+      <c r="I136" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J136" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K136" s="19"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B137" s="6"/>
+      <c r="C137" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="15">
+        <v>1</v>
+      </c>
+      <c r="E137" s="15">
+        <v>1</v>
+      </c>
+      <c r="F137" s="15">
+        <v>2</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I137" s="15">
+        <v>0</v>
+      </c>
+      <c r="J137" s="15">
+        <v>0</v>
+      </c>
+      <c r="K137" s="17"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="15">
+        <v>1</v>
+      </c>
+      <c r="E138" s="15">
+        <v>0</v>
+      </c>
+      <c r="F138" s="15">
+        <v>1</v>
+      </c>
+      <c r="H138" s="6"/>
+      <c r="I138" s="15">
+        <v>0</v>
+      </c>
+      <c r="J138" s="15">
+        <v>1</v>
+      </c>
+      <c r="K138" s="17"/>
+      <c r="N138" s="6"/>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="15">
+        <v>0</v>
+      </c>
+      <c r="E139" s="15">
+        <v>0</v>
+      </c>
+      <c r="F139" s="15">
+        <v>1</v>
+      </c>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="15">
+        <v>1</v>
+      </c>
+      <c r="J139" s="15">
+        <v>0</v>
+      </c>
+      <c r="K139" s="17"/>
+      <c r="L139" s="6"/>
+      <c r="N139" s="6"/>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="N140" s="6"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B141" s="6"/>
+      <c r="C141" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="15" cm="1">
+        <f t="array" ref="D141:F143">MINVERSE(D137:F139)</f>
+        <v>0</v>
+      </c>
+      <c r="E141" s="15">
+        <v>1</v>
+      </c>
+      <c r="F141" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I141" s="15" cm="1">
+        <f t="array" ref="I141:I143">MMULT(_xlfn.ANCHORARRAY(D141),K128:K130)</f>
+        <v>40</v>
+      </c>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="15">
+        <v>1</v>
+      </c>
+      <c r="E142" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F142" s="15">
+        <v>-1</v>
+      </c>
+      <c r="H142" s="6"/>
+      <c r="I142" s="15">
+        <v>-20</v>
+      </c>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="15">
+        <v>0</v>
+      </c>
+      <c r="E143" s="15">
+        <v>0</v>
+      </c>
+      <c r="F143" s="15">
+        <v>1</v>
+      </c>
+      <c r="H143" s="6"/>
+      <c r="I143" s="15">
+        <v>40</v>
+      </c>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6"/>
+      <c r="N144" s="6"/>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B146" s="6"/>
+      <c r="C146" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D146" s="15" cm="1">
+        <f t="array" ref="D146:E148">MMULT(_xlfn.ANCHORARRAY(D141),I137:J139)</f>
+        <v>-1</v>
+      </c>
+      <c r="E146" s="15">
+        <v>1</v>
+      </c>
+      <c r="F146" s="17"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6"/>
+      <c r="N146" s="6"/>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E147" s="15">
+        <v>-1</v>
+      </c>
+      <c r="F147" s="17"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6"/>
+      <c r="N147" s="6"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="15">
+        <v>1</v>
+      </c>
+      <c r="E148" s="15">
+        <v>0</v>
+      </c>
+      <c r="F148" s="17"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6"/>
+      <c r="N148" s="6"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6"/>
+      <c r="N149" s="6"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B151" s="6"/>
+      <c r="C151" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" s="17" cm="1">
+        <f t="array" ref="D151:E151">MMULT(D133:F133,_xlfn.ANCHORARRAY(D146))</f>
+        <v>1</v>
+      </c>
+      <c r="E151" s="17">
+        <v>2</v>
+      </c>
+      <c r="F151" s="17"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B152" s="6"/>
+      <c r="C152" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" s="41">
+        <f>D151-D134</f>
+        <v>1</v>
+      </c>
+      <c r="E152" s="41">
+        <f>E151-E134</f>
+        <v>2</v>
+      </c>
+      <c r="F152" s="42"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
+    </row>
+    <row r="153" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B153" s="37"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="37"/>
+      <c r="F153" s="37"/>
+      <c r="G153" s="37"/>
+      <c r="H153" s="37"/>
+      <c r="I153" s="37"/>
+      <c r="J153" s="37"/>
+      <c r="K153" s="37"/>
+      <c r="L153" s="37"/>
+      <c r="M153" s="37"/>
+      <c r="N153" s="37"/>
+    </row>
+    <row r="155" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B155" s="42"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="42"/>
+      <c r="E155" s="42"/>
+      <c r="F155" s="42"/>
+      <c r="G155" s="42"/>
+      <c r="H155" s="42"/>
+      <c r="I155" s="42"/>
+      <c r="J155" s="42"/>
+      <c r="K155" s="42"/>
+      <c r="L155" s="17"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B156" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C156" s="27" cm="1">
+        <f t="array" ref="C156">MMULT(D133:F133,_xlfn.ANCHORARRAY(I141))</f>
+        <v>200</v>
+      </c>
+      <c r="D156" s="42"/>
+      <c r="E156" s="42"/>
+      <c r="F156" s="42"/>
+      <c r="G156" s="23"/>
+      <c r="H156" s="42"/>
+      <c r="I156" s="42"/>
+      <c r="J156" s="42"/>
+      <c r="K156" s="42"/>
+      <c r="L156" s="17"/>
+      <c r="M156" s="6"/>
+      <c r="N156" s="6"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B157" s="28"/>
+      <c r="C157" s="29"/>
+      <c r="D157" s="48"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="23"/>
+      <c r="G157" s="23"/>
+      <c r="H157" s="23"/>
+      <c r="I157" s="23"/>
+      <c r="J157" s="23"/>
+      <c r="K157" s="23"/>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B158" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C158" s="29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B159" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C159" s="29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B160" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C160" s="29">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B161" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C161" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B162" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C162" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B163" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C163" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B164" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C164" s="31">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7714,7 +9201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB157B7-6FC4-424F-81BE-1CD7375E72EC}">
   <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="K118" sqref="K118"/>
     </sheetView>
   </sheetViews>
@@ -7725,7 +9212,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>73</v>
       </c>
       <c r="B1" s="6"/>
@@ -7764,7 +9251,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="34"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="8" t="s">
@@ -7783,7 +9270,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="6"/>
@@ -7802,23 +9289,23 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="16" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="6"/>
@@ -7829,7 +9316,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="34"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
@@ -7864,7 +9351,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="6"/>
@@ -7895,7 +9382,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C8" s="6"/>
@@ -7916,7 +9403,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="6"/>
@@ -7947,7 +9434,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C10" s="6"/>
@@ -7972,10 +9459,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7" t="s">
@@ -7987,10 +9474,10 @@
       <c r="H11" s="15">
         <v>-40</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="18"/>
+      <c r="L11" s="17"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -7998,37 +9485,37 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>75</v>
       </c>
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>76</v>
       </c>
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="35" t="s">
         <v>77</v>
       </c>
       <c r="O15" s="6"/>
@@ -8040,7 +9527,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C17" s="6"/>
@@ -8095,7 +9582,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="6"/>
@@ -8114,7 +9601,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>87</v>
       </c>
       <c r="C21" s="6"/>
@@ -8133,7 +9620,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="6"/>
@@ -8148,11 +9635,11 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="18"/>
+      <c r="O22" s="17"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
-      <c r="B23" s="34"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -8165,11 +9652,11 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="18"/>
+      <c r="O23" s="17"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="6"/>
@@ -8184,11 +9671,11 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="18"/>
+      <c r="O24" s="17"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>89</v>
       </c>
       <c r="C25" s="6"/>
@@ -8203,23 +9690,23 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="18"/>
+      <c r="O25" s="17"/>
     </row>
     <row r="26" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
       <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -8243,16 +9730,16 @@
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="16" t="s">
         <v>18</v>
       </c>
       <c r="H28" s="6"/>
@@ -8403,8 +9890,8 @@
       <c r="E34" s="15">
         <v>30</v>
       </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -8435,18 +9922,18 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="17" t="s">
+      <c r="H36" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="16" t="s">
         <v>9</v>
       </c>
       <c r="J36" s="6"/>
@@ -8739,11 +10226,11 @@
       <c r="C50" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="40">
+      <c r="D50" s="39">
         <f>D49-D34</f>
         <v>-10</v>
       </c>
-      <c r="E50" s="39">
+      <c r="E50" s="38">
         <f>E49-E34</f>
         <v>-30</v>
       </c>
@@ -8795,62 +10282,62 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="20" t="s">
+      <c r="B53" s="17"/>
+      <c r="C53" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D53" s="40" cm="1">
+      <c r="D53" s="39" cm="1">
         <f t="array" ref="D53:D54">_xlfn.ANCHORARRAY(H41)/E45:E46</f>
         <v>15</v>
       </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="41">
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="40">
         <v>3</v>
       </c>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18" t="s">
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
       <c r="O55" s="6"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -8874,16 +10361,16 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="17" t="s">
+      <c r="F57" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G57" s="16" t="s">
         <v>9</v>
       </c>
       <c r="H57" s="6"/>
@@ -9020,8 +10507,8 @@
       <c r="E63" s="15">
         <v>0</v>
       </c>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
@@ -9046,18 +10533,18 @@
     <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="17" t="s">
+      <c r="D65" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
-      <c r="H65" s="17" t="s">
+      <c r="H65" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I65" s="17" t="s">
+      <c r="I65" s="16" t="s">
         <v>18</v>
       </c>
       <c r="J65" s="6"/>
@@ -9322,11 +10809,11 @@
       <c r="C79" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D79" s="39">
+      <c r="D79" s="38">
         <f>D78-D63</f>
         <v>-4</v>
       </c>
-      <c r="E79" s="40">
+      <c r="E79" s="39">
         <f>E78-E63</f>
         <v>6</v>
       </c>
@@ -9372,58 +10859,58 @@
       <c r="N81" s="6"/>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B82" s="18"/>
-      <c r="C82" s="20" t="s">
+      <c r="B82" s="17"/>
+      <c r="C82" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D82" s="41" cm="1">
+      <c r="D82" s="40" cm="1">
         <f t="array" ref="D82:D83">_xlfn.ANCHORARRAY(H70)/D74:D75</f>
         <v>2.5</v>
       </c>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="40">
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="39">
         <v>15</v>
       </c>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18" t="s">
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
     </row>
     <row r="84" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="38"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="6"/>
@@ -9443,16 +10930,16 @@
     <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
-      <c r="D86" s="17" t="s">
+      <c r="D86" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E86" s="17" t="s">
+      <c r="E86" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F86" s="17" t="s">
+      <c r="F86" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G86" s="17" t="s">
+      <c r="G86" s="16" t="s">
         <v>9</v>
       </c>
       <c r="H86" s="6"/>
@@ -9587,8 +11074,8 @@
       <c r="E92" s="15">
         <v>0</v>
       </c>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
       <c r="J92" s="6"/>
@@ -9611,18 +11098,18 @@
     <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
-      <c r="D94" s="17" t="s">
+      <c r="D94" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="17" t="s">
+      <c r="E94" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
-      <c r="H94" s="17" t="s">
+      <c r="H94" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I94" s="17" t="s">
+      <c r="I94" s="16" t="s">
         <v>18</v>
       </c>
       <c r="J94" s="6"/>
@@ -9918,19 +11405,19 @@
       <c r="N109" s="6"/>
     </row>
     <row r="110" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="38"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="38"/>
-      <c r="G110" s="38"/>
-      <c r="H110" s="38"/>
-      <c r="I110" s="38"/>
-      <c r="J110" s="38"/>
-      <c r="K110" s="38"/>
-      <c r="L110" s="38"/>
-      <c r="M110" s="38"/>
-      <c r="N110" s="38"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="37"/>
+      <c r="I110" s="37"/>
+      <c r="J110" s="37"/>
+      <c r="K110" s="37"/>
+      <c r="L110" s="37"/>
+      <c r="M110" s="37"/>
+      <c r="N110" s="37"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="6"/>
@@ -9957,69 +11444,69 @@
       <c r="H112" s="42"/>
       <c r="I112" s="42"/>
       <c r="J112" s="42"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="18"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
       <c r="M112" s="6"/>
       <c r="N112" s="6"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B113" s="27" t="s">
+      <c r="B113" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C113" s="28" cm="1">
+      <c r="C113" s="27" cm="1">
         <f t="array" ref="C113">MMULT(D91:E91,_xlfn.ANCHORARRAY(H99))</f>
         <v>100</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B114" s="29"/>
-      <c r="C114" s="30"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="29"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B115" s="29" t="s">
+      <c r="B115" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C115" s="30">
+      <c r="C115" s="29">
         <v>2.5</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B116" s="29" t="s">
+      <c r="B116" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C116" s="30">
+      <c r="C116" s="29">
         <v>2.5</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B117" s="29" t="s">
+      <c r="B117" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C117" s="30">
+      <c r="C117" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B118" s="29" t="s">
+      <c r="B118" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C118" s="30">
+      <c r="C118" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B119" s="29" t="s">
+      <c r="B119" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C119" s="30">
+      <c r="C119" s="29">
         <v>0.83299999999999996</v>
       </c>
     </row>
     <row r="120" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="31" t="s">
+      <c r="B120" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C120" s="32">
+      <c r="C120" s="31">
         <v>5.8330000000000002</v>
       </c>
     </row>
